--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B55F2-ECF6-41F4-800E-D47B89194907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453468D-D3AB-4DD0-B7BC-65887A2E8E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="300">
   <si>
     <t>setting_name</t>
   </si>
@@ -881,15 +881,9 @@
     <t>async_assign_num_value</t>
   </si>
   <si>
-    <t>data('ABPARTTIPO') == '1'||data('ABPARTTIPO') == '2'</t>
-  </si>
-  <si>
     <t>OOP</t>
   </si>
   <si>
-    <t>Pagamentos</t>
-  </si>
-  <si>
     <t>MIF_V_OOP</t>
   </si>
   <si>
@@ -924,6 +918,24 @@
   </si>
   <si>
     <t>MIF_V_OOP_ANC</t>
+  </si>
+  <si>
+    <t>mif_v_oop_anc</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') == '1' &amp;&amp; (data('ABPARTTIPO') == '1'||data('ABPARTTIPO') == '2')</t>
+  </si>
+  <si>
+    <t>Pagamentos Nascimento</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') == '1' &amp;&amp; data('ABPART') == '1'</t>
+  </si>
+  <si>
+    <t>OOP ANC</t>
+  </si>
+  <si>
+    <t>Pagamentos CPN</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1112,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1150,6 +1162,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1437,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -1552,11 +1565,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1758,10 +1771,10 @@
         <v>269</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2024,7 +2037,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="27"/>
       <c r="B45" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -2033,7 +2046,7 @@
         <v>116</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -2048,121 +2061,156 @@
         <v>194</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="27"/>
       <c r="D49" s="19" t="s">
         <v>181</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="27"/>
       <c r="B50" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="27"/>
       <c r="B51" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="27"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="27"/>
-      <c r="B53" t="s">
+    <row r="52" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+    </row>
+    <row r="54" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+    </row>
+    <row r="55" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+    </row>
+    <row r="56" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+    </row>
+    <row r="57" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+    </row>
+    <row r="58" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B55" s="27" t="s">
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="27"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="27"/>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B62" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B56" s="27" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B63" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B57" s="27"/>
-      <c r="D57" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" t="s">
-        <v>150</v>
-      </c>
-      <c r="H57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B59" s="27"/>
-      <c r="D59" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" t="s">
-        <v>153</v>
-      </c>
-      <c r="H59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B60" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B61" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B62" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B63" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B64" s="25"/>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B64" s="27"/>
       <c r="D64" t="s">
         <v>115</v>
       </c>
@@ -2170,181 +2218,245 @@
         <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G64" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B65" s="25"/>
-      <c r="D65" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" t="s">
-        <v>158</v>
-      </c>
-      <c r="H65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B66" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B65" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C66" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B67" s="25"/>
-      <c r="D67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" t="s">
-        <v>160</v>
-      </c>
-      <c r="G67" t="s">
-        <v>161</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B66" s="27"/>
+      <c r="D66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" t="s">
+        <v>153</v>
+      </c>
+      <c r="H66" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B68" s="25" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B67" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B69" s="25" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="19"/>
-      <c r="B70" s="28" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B71" s="28"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="25"/>
       <c r="D71" t="s">
         <v>115</v>
       </c>
       <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G71" t="s">
+        <v>156</v>
+      </c>
+      <c r="H71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="25"/>
+      <c r="D72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" t="s">
+        <v>157</v>
+      </c>
+      <c r="G72" t="s">
+        <v>158</v>
+      </c>
+      <c r="H72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="25"/>
+      <c r="D74" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G74" t="s">
+        <v>161</v>
+      </c>
+      <c r="H74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="19"/>
+      <c r="B77" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B78" s="28"/>
+      <c r="D78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78" t="s">
         <v>178</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F78" t="s">
         <v>214</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G78" t="s">
         <v>179</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H78" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B72" s="28" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="28" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C80" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B74" s="28" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B81" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B75" s="28"/>
-      <c r="D75" t="s">
-        <v>194</v>
-      </c>
-      <c r="G75" t="s">
-        <v>288</v>
-      </c>
-      <c r="H75" t="s">
-        <v>289</v>
-      </c>
-      <c r="L75" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B76" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B77" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="19"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="23"/>
-      <c r="B79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="21"/>
-      <c r="B80" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B82" s="28"/>
       <c r="D82" t="s">
         <v>194</v>
       </c>
-      <c r="G82" s="24" t="s">
+      <c r="G82" t="s">
+        <v>286</v>
+      </c>
+      <c r="H82" t="s">
+        <v>287</v>
+      </c>
+      <c r="L82" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B83" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B84" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="19"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="23"/>
+      <c r="B86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="21"/>
+      <c r="B87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="H82" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="L82" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
+      <c r="H89" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="L89" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="21"/>
-      <c r="B85" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="21"/>
+      <c r="B92" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2430,8 +2542,8 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3303,9 +3415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3490,16 +3602,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
         <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
         <v>260</v>
@@ -3515,11 +3627,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E9" t="s">
         <v>260</v>
@@ -3529,6 +3647,9 @@
       </c>
       <c r="G9" t="s">
         <v>264</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3798,7 +3919,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>113</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453468D-D3AB-4DD0-B7BC-65887A2E8E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ABB74F-19A2-4EA2-BBB2-A49DA8F7FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="305">
   <si>
     <t>setting_name</t>
   </si>
@@ -936,6 +936,21 @@
   </si>
   <si>
     <t>Pagamentos CPN</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') == '1' &amp;&amp; data('ABPARTTIPO') == '1'</t>
+  </si>
+  <si>
+    <t>mif_v_oop_vac</t>
+  </si>
+  <si>
+    <t>OOP Vacinas</t>
+  </si>
+  <si>
+    <t>Pagamentos vacinas</t>
+  </si>
+  <si>
+    <t>MIF_V_OOP_VAC</t>
   </si>
 </sst>
 </file>
@@ -1450,9 +1465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1565,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2088,8 +2103,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B53" s="28" t="s">
         <v>116</v>
       </c>
@@ -2106,7 +2120,7 @@
       <c r="K53" s="28"/>
       <c r="L53" s="28"/>
     </row>
-    <row r="54" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B54" s="28" t="s">
         <v>12</v>
       </c>
@@ -2121,7 +2135,7 @@
       <c r="K54" s="28"/>
       <c r="L54" s="28"/>
     </row>
-    <row r="55" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28" t="s">
@@ -2140,7 +2154,7 @@
       <c r="K55" s="28"/>
       <c r="L55" s="28"/>
     </row>
-    <row r="56" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28" t="s">
@@ -2157,7 +2171,7 @@
       <c r="K56" s="28"/>
       <c r="L56" s="28"/>
     </row>
-    <row r="57" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B57" s="28" t="s">
         <v>13</v>
       </c>
@@ -2172,7 +2186,7 @@
       <c r="K57" s="28"/>
       <c r="L57" s="28"/>
     </row>
-    <row r="58" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B58" s="28" t="s">
         <v>117</v>
       </c>
@@ -2187,94 +2201,129 @@
       <c r="K58" s="28"/>
       <c r="L58" s="28"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="27"/>
-    </row>
+    <row r="59" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="27"/>
-      <c r="B60" t="s">
+      <c r="B60" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B61" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B64" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B65" s="24" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B62" s="27" t="s">
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="27"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="27"/>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B69" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C69" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="27" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B70" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="27"/>
-      <c r="D64" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B65" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B66" s="27"/>
-      <c r="D66" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F66" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" t="s">
-        <v>153</v>
-      </c>
-      <c r="H66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B67" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B68" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B70" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B71" s="25"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B71" s="27"/>
       <c r="D71" t="s">
         <v>115</v>
       </c>
@@ -2282,181 +2331,245 @@
         <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G71" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B72" s="25"/>
-      <c r="D72" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" t="s">
-        <v>157</v>
-      </c>
-      <c r="G72" t="s">
-        <v>158</v>
-      </c>
-      <c r="H72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B73" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B72" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B74" s="25"/>
-      <c r="D74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" t="s">
-        <v>160</v>
-      </c>
-      <c r="G74" t="s">
-        <v>161</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B73" s="27"/>
+      <c r="D73" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B75" s="25" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B74" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B76" s="25" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B75" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
-      <c r="B77" s="28" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B76" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B77" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B78" s="28"/>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B78" s="25"/>
       <c r="D78" t="s">
         <v>115</v>
       </c>
       <c r="E78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" t="s">
+        <v>155</v>
+      </c>
+      <c r="G78" t="s">
+        <v>156</v>
+      </c>
+      <c r="H78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B79" s="25"/>
+      <c r="D79" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" t="s">
+        <v>158</v>
+      </c>
+      <c r="H79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B80" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B81" s="25"/>
+      <c r="D81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" t="s">
+        <v>160</v>
+      </c>
+      <c r="G81" t="s">
+        <v>161</v>
+      </c>
+      <c r="H81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B82" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B83" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="19"/>
+      <c r="B84" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B85" s="28"/>
+      <c r="D85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" t="s">
         <v>178</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F85" t="s">
         <v>214</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G85" t="s">
         <v>179</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H85" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B79" s="28" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B86" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B80" s="28" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B87" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C87" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B81" s="28" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B88" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B82" s="28"/>
-      <c r="D82" t="s">
-        <v>194</v>
-      </c>
-      <c r="G82" t="s">
-        <v>286</v>
-      </c>
-      <c r="H82" t="s">
-        <v>287</v>
-      </c>
-      <c r="L82" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B83" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B84" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="19"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="23"/>
-      <c r="B86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="21"/>
-      <c r="B87" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B89" s="28"/>
       <c r="D89" t="s">
         <v>194</v>
       </c>
-      <c r="G89" s="24" t="s">
+      <c r="G89" t="s">
+        <v>286</v>
+      </c>
+      <c r="H89" t="s">
+        <v>287</v>
+      </c>
+      <c r="L89" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B90" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B91" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="19"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="23"/>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="21"/>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
+        <v>194</v>
+      </c>
+      <c r="G96" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="H89" s="24" t="s">
+      <c r="H96" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L96" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="21"/>
-      <c r="B92" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="21"/>
+      <c r="B99" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2542,7 +2655,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -3413,11 +3526,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3652,6 +3765,32 @@
         <v>191</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3662,8 +3801,8 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ABB74F-19A2-4EA2-BBB2-A49DA8F7FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C82B82-4A87-4CB2-8CB0-8EF2EE3A8AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="346">
   <si>
     <t>setting_name</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>assistent</t>
-  </si>
-  <si>
     <t>Simoneo</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Demba</t>
   </si>
   <si>
-    <t>Sanne/Ane</t>
-  </si>
-  <si>
     <t>precision</t>
   </si>
   <si>
@@ -536,9 +530,6 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t xml:space="preserve">data('PARPAD') != '1' </t>
-  </si>
-  <si>
     <t>select_multiple</t>
   </si>
   <si>
@@ -563,15 +554,6 @@
     <t>data('ABPARTNV') == '2'</t>
   </si>
   <si>
-    <t>ABPARTNVDATA</t>
-  </si>
-  <si>
-    <t>Date of death</t>
-  </si>
-  <si>
-    <t>Data de falecimento</t>
-  </si>
-  <si>
     <t>YesNo</t>
   </si>
   <si>
@@ -734,9 +716,6 @@
     <t>data('GR') == '1'</t>
   </si>
   <si>
-    <t>data('GR') != '1'</t>
-  </si>
-  <si>
     <t xml:space="preserve">end screen </t>
   </si>
   <si>
@@ -770,9 +749,6 @@
     <t>Vacina anti-tetánica</t>
   </si>
   <si>
-    <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3'</t>
-  </si>
-  <si>
     <t>display.title.text.english</t>
   </si>
   <si>
@@ -794,12 +770,6 @@
     <t>data('LASTVISIT') != null</t>
   </si>
   <si>
-    <t>data('GR') == '1'  || data('GRCORE') == '1'</t>
-  </si>
-  <si>
-    <t>GRCORE</t>
-  </si>
-  <si>
     <t>SCAR</t>
   </si>
   <si>
@@ -911,9 +881,6 @@
     <t>Preenceher F Gravida</t>
   </si>
   <si>
-    <t>Preencjer Ficha de Obito de MIF</t>
-  </si>
-  <si>
     <t>linked_table faleceu removed</t>
   </si>
   <si>
@@ -951,6 +918,162 @@
   </si>
   <si>
     <t>MIF_V_OOP_VAC</t>
+  </si>
+  <si>
+    <t>Jailson</t>
+  </si>
+  <si>
+    <t>Igualdino</t>
+  </si>
+  <si>
+    <t>Helson</t>
+  </si>
+  <si>
+    <t>Gibril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isna </t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>="4"</t>
+  </si>
+  <si>
+    <t>="10"</t>
+  </si>
+  <si>
+    <t>="11"</t>
+  </si>
+  <si>
+    <t>="13"</t>
+  </si>
+  <si>
+    <t>="14"</t>
+  </si>
+  <si>
+    <t>="15"</t>
+  </si>
+  <si>
+    <t>="16"</t>
+  </si>
+  <si>
+    <t>="20"</t>
+  </si>
+  <si>
+    <t>="22"</t>
+  </si>
+  <si>
+    <t>="23"</t>
+  </si>
+  <si>
+    <t>="26"</t>
+  </si>
+  <si>
+    <t>="28"</t>
+  </si>
+  <si>
+    <t>="29"</t>
+  </si>
+  <si>
+    <t>="30"</t>
+  </si>
+  <si>
+    <t>="31"</t>
+  </si>
+  <si>
+    <t>="32"</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Preencher Ficha de Obito de MIF</t>
+  </si>
+  <si>
+    <t>data('GR') != '1' || data('PARPAD') != '2'</t>
+  </si>
+  <si>
+    <t>GR_LAST</t>
+  </si>
+  <si>
+    <t>GR_AINDA</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3' &amp;&amp; data('GR_LAST')=="1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt; estave gravida visita passada. Ela continuar ser gravida? </t>
+  </si>
+  <si>
+    <t>data('PARPAD') != '1' &amp;&amp; data('GR_AINDA')!="1"</t>
+  </si>
+  <si>
+    <t>ABPARTNV_TEMPO</t>
+  </si>
+  <si>
+    <t>Age at death</t>
+  </si>
+  <si>
+    <t>ABPARTNV_TEMPO_UNIT</t>
+  </si>
+  <si>
+    <t>time_unit</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Semanas</t>
+  </si>
+  <si>
+    <t>Meses</t>
+  </si>
+  <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>Unidade de tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3' </t>
+  </si>
+  <si>
+    <t>select_one_with_other</t>
+  </si>
+  <si>
+    <t>Idade de falecimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt; esta gravida? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt; esta gravida? (Ja foi registrada come parou padir) </t>
+  </si>
+  <si>
+    <t>PARPAD3</t>
+  </si>
+  <si>
+    <t>data('GR') == '1'  &amp;&amp; data('GR_LAST') != '1'</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3' &amp;&amp; data('GR_LAST')!="1"&amp;&amp;data('PARPAD3')=="1"</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3' &amp;&amp; data('GR_LAST') != "1"  &amp;&amp; data('PARPAD3') !='1'</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,6 +1225,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1127,7 +1262,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1177,7 +1312,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1467,7 +1603,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1487,13 +1623,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -1504,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1520,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1528,10 +1664,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1547,7 +1683,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1558,18 +1694,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1580,11 +1716,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,7 +1740,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1622,22 +1758,22 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1648,33 +1784,33 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
         <v>120</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1689,73 +1825,73 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" t="s">
         <v>129</v>
-      </c>
-      <c r="G9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1767,10 +1903,10 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1780,16 +1916,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="L17" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1800,93 +1936,71 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="24"/>
       <c r="D23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>323</v>
       </c>
       <c r="H23" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="24"/>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" t="s">
-        <v>140</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
-      <c r="L25" t="s">
-        <v>251</v>
+      <c r="B25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" t="s">
-        <v>235</v>
+      <c r="B26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="24" t="s">
-        <v>13</v>
+      <c r="A27" s="23"/>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="24" t="s">
-        <v>116</v>
+      <c r="A28" s="30"/>
+      <c r="B28" t="s">
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -1897,680 +2011,889 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="24"/>
       <c r="D30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" t="s">
+        <v>340</v>
+      </c>
+      <c r="H30" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="24"/>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="24"/>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="24" t="s">
+      <c r="J34" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" s="26" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="30"/>
+      <c r="B36" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="30"/>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="26"/>
-      <c r="D35" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
-      <c r="B36" s="26"/>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
-      <c r="B37" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
-      <c r="B38" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="5"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="24"/>
+      <c r="D39" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" t="s">
+        <v>341</v>
+      </c>
+      <c r="H39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="24"/>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
         <v>27</v>
       </c>
       <c r="F40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="24"/>
+      <c r="D41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>225</v>
+      </c>
+      <c r="L42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="30"/>
+      <c r="B45" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="29"/>
+      <c r="B47" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="24"/>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="29"/>
+      <c r="B51" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="27"/>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="27"/>
+      <c r="B53" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="27"/>
+      <c r="B54" s="26"/>
+      <c r="D54" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" t="s">
+        <v>166</v>
+      </c>
+      <c r="H54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="27"/>
+      <c r="B55" s="26"/>
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="27"/>
+      <c r="B56" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="27"/>
+      <c r="B57" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="27"/>
+      <c r="B58" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="27"/>
+      <c r="B59" s="5"/>
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="27"/>
+      <c r="B60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="27"/>
+      <c r="B61" s="5"/>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" t="s">
+        <v>326</v>
+      </c>
+      <c r="H61" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="27"/>
+      <c r="B62" s="5"/>
+      <c r="D62" t="s">
+        <v>338</v>
+      </c>
+      <c r="E62" t="s">
+        <v>328</v>
+      </c>
+      <c r="F62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" t="s">
+        <v>335</v>
+      </c>
+      <c r="H62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="27"/>
+      <c r="B63" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="27"/>
+      <c r="B64" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="27"/>
+      <c r="B65" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="27"/>
+      <c r="B66" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="27"/>
+      <c r="B67" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="27"/>
+      <c r="D68" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="27"/>
+      <c r="D69" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="27"/>
+      <c r="B70" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="27"/>
+      <c r="B71" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B73" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B74" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B77" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B78" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B80" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B81" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B84" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B85" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="27"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="27"/>
+      <c r="B87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B89" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B90" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B91" s="27"/>
+      <c r="D91" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" t="s">
+        <v>146</v>
+      </c>
+      <c r="G91" t="s">
+        <v>148</v>
+      </c>
+      <c r="H91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B92" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B93" s="27"/>
+      <c r="D93" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" t="s">
+        <v>150</v>
+      </c>
+      <c r="G93" t="s">
+        <v>151</v>
+      </c>
+      <c r="H93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B94" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B95" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B96" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B97" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B98" s="25"/>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" t="s">
+        <v>153</v>
+      </c>
+      <c r="G98" t="s">
+        <v>154</v>
+      </c>
+      <c r="H98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B99" s="25"/>
+      <c r="D99" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" t="s">
+        <v>155</v>
+      </c>
+      <c r="G99" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B100" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B101" s="25"/>
+      <c r="D101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" t="s">
+        <v>158</v>
+      </c>
+      <c r="G101" t="s">
+        <v>159</v>
+      </c>
+      <c r="H101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B102" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B103" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" s="19"/>
+      <c r="B104" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B105" s="28"/>
+      <c r="D105" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105" t="s">
         <v>172</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F105" t="s">
+        <v>208</v>
+      </c>
+      <c r="G105" t="s">
         <v>173</v>
       </c>
-      <c r="H40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
-      <c r="B41" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="H105" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="27"/>
-      <c r="B42" s="5"/>
-      <c r="D42" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" t="s">
-        <v>176</v>
-      </c>
-      <c r="H42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="27"/>
-      <c r="B43" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="27"/>
-      <c r="B44" s="5" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B106" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="27"/>
-      <c r="B45" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="27"/>
-      <c r="B46" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="27"/>
-      <c r="B47" s="19" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B107" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B108" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="27"/>
-      <c r="D48" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="27"/>
-      <c r="D49" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="27"/>
-      <c r="B50" s="19" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B109" s="28"/>
+      <c r="D109" t="s">
+        <v>188</v>
+      </c>
+      <c r="G109" t="s">
+        <v>276</v>
+      </c>
+      <c r="H109" t="s">
+        <v>277</v>
+      </c>
+      <c r="L109" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B110" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="27"/>
-      <c r="B51" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B53" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B54" s="28" t="s">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B111" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="19"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="23"/>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" s="21"/>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B58" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-    </row>
-    <row r="59" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B65" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="27"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="27"/>
-      <c r="B67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B69" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B70" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B71" s="27"/>
-      <c r="D71" t="s">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
+        <v>188</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="L116" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" s="21"/>
+      <c r="B119" t="s">
         <v>115</v>
-      </c>
-      <c r="E71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" t="s">
-        <v>148</v>
-      </c>
-      <c r="G71" t="s">
-        <v>150</v>
-      </c>
-      <c r="H71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B72" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="27"/>
-      <c r="D73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s">
-        <v>152</v>
-      </c>
-      <c r="G73" t="s">
-        <v>153</v>
-      </c>
-      <c r="H73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B74" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B75" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B76" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B77" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B78" s="25"/>
-      <c r="D78" t="s">
-        <v>115</v>
-      </c>
-      <c r="E78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" t="s">
-        <v>155</v>
-      </c>
-      <c r="G78" t="s">
-        <v>156</v>
-      </c>
-      <c r="H78" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B79" s="25"/>
-      <c r="D79" t="s">
-        <v>115</v>
-      </c>
-      <c r="E79" t="s">
-        <v>67</v>
-      </c>
-      <c r="F79" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" t="s">
-        <v>158</v>
-      </c>
-      <c r="H79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B80" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B81" s="25"/>
-      <c r="D81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
-      </c>
-      <c r="G81" t="s">
-        <v>161</v>
-      </c>
-      <c r="H81" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B82" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B83" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="19"/>
-      <c r="B84" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B85" s="28"/>
-      <c r="D85" t="s">
-        <v>115</v>
-      </c>
-      <c r="E85" t="s">
-        <v>178</v>
-      </c>
-      <c r="F85" t="s">
-        <v>214</v>
-      </c>
-      <c r="G85" t="s">
-        <v>179</v>
-      </c>
-      <c r="H85" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B86" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B87" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B88" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B89" s="28"/>
-      <c r="D89" t="s">
-        <v>194</v>
-      </c>
-      <c r="G89" t="s">
-        <v>286</v>
-      </c>
-      <c r="H89" t="s">
-        <v>287</v>
-      </c>
-      <c r="L89" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B90" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B91" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="19"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="23"/>
-      <c r="B93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="21"/>
-      <c r="B94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D96" t="s">
-        <v>194</v>
-      </c>
-      <c r="G96" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="H96" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="L96" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B98" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="21"/>
-      <c r="B99" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2597,52 +2920,52 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2652,11 +2975,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2675,7 +2998,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -2683,7 +3006,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
@@ -2698,7 +3021,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
@@ -2756,766 +3079,885 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="str">
-        <f>"13"</f>
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="str">
-        <f>"26"</f>
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="str">
-        <f>"15"</f>
-        <v>15</v>
+        <v>317</v>
+      </c>
+      <c r="B9" t="s">
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="str">
-        <f>"14"</f>
-        <v>14</v>
+        <v>317</v>
+      </c>
+      <c r="B10" t="s">
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <v>317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="str">
-        <f>"11"</f>
-        <v>11</v>
+        <v>317</v>
+      </c>
+      <c r="B12" t="s">
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="str">
-        <f>"16"</f>
-        <v>16</v>
+        <v>317</v>
+      </c>
+      <c r="B13" t="s">
+        <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="str">
+        <v>317</v>
+      </c>
+      <c r="B14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="str">
-        <f>"20"</f>
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="str">
-        <f>"79"</f>
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="str">
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="str">
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="str">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="str">
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D34" t="s">
         <v>56</v>
       </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="str">
+      <c r="B35" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="str">
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>66</v>
+      <c r="C36" t="s">
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="B37" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="B38" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B39" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
+      <c r="C41" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B42" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B43" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B44" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>105</v>
       </c>
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
-        <v>84</v>
-      </c>
       <c r="D48" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="9"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="B49" t="str">
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="10"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
         <v>75</v>
       </c>
-      <c r="B50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" t="s">
-        <v>88</v>
-      </c>
       <c r="D50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="11"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" t="str">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>216</v>
-      </c>
-      <c r="B58" t="str">
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C58" t="s">
-        <v>219</v>
-      </c>
-      <c r="D58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" t="str">
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>221</v>
-      </c>
-      <c r="B60" t="str">
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C60" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>221</v>
-      </c>
-      <c r="B61" t="str">
+      <c r="C65" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C61" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>221</v>
-      </c>
-      <c r="B62" t="str">
+      <c r="C66" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C67" t="s">
         <v>29</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D67" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>329</v>
+      </c>
+      <c r="D69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>328</v>
+      </c>
+      <c r="B70" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>328</v>
+      </c>
+      <c r="B71" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3528,9 +3970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3547,248 +3989,248 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="H1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="I1" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G8" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G9" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3798,11 +4240,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3826,10 +4268,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -3837,10 +4279,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3848,10 +4290,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3859,10 +4301,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3870,32 +4312,32 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>123</v>
+      <c r="A7" t="s">
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>214</v>
+      <c r="A8" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3903,33 +4345,33 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3937,10 +4379,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -3948,10 +4390,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3959,10 +4401,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3970,10 +4412,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3981,32 +4423,32 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -4014,10 +4456,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -4025,10 +4467,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -4036,10 +4478,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4047,43 +4489,43 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="24" t="b">
+      <c r="C23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" t="b">
+      <c r="A24" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -4091,10 +4533,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -4102,32 +4544,32 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" t="b">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -4135,10 +4577,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" t="s">
-        <v>113</v>
+        <v>320</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -4146,17 +4588,50 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C82B82-4A87-4CB2-8CB0-8EF2EE3A8AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245229B-031E-4005-B2C5-EC95D0DEBD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -401,9 +401,6 @@
     <t>Data de visita</t>
   </si>
   <si>
-    <t>ASSISTENTE</t>
-  </si>
-  <si>
     <t>Assistent</t>
   </si>
   <si>
@@ -995,9 +992,6 @@
     <t>Preencher Ficha de Obito de MIF</t>
   </si>
   <si>
-    <t>data('GR') != '1' || data('PARPAD') != '2'</t>
-  </si>
-  <si>
     <t>GR_LAST</t>
   </si>
   <si>
@@ -1074,6 +1068,12 @@
   </si>
   <si>
     <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3' &amp;&amp; data('GR_LAST') != "1"  &amp;&amp; data('PARPAD3') !='1'</t>
+  </si>
+  <si>
+    <t>ASSISTANT</t>
+  </si>
+  <si>
+    <t>data('GR') != '1' || (data('PARPAD') != '2' &amp;&amp; data('PARPAD3') != '1')</t>
   </si>
 </sst>
 </file>
@@ -1623,13 +1623,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -1640,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1656,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1664,10 +1664,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
         <v>245</v>
-      </c>
-      <c r="D5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1683,7 +1683,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1694,18 +1694,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1718,9 +1718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1758,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -1767,13 +1767,13 @@
         <v>116</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1784,7 +1784,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -1801,16 +1801,16 @@
         <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" t="s">
         <v>121</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>122</v>
-      </c>
-      <c r="H4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1831,13 +1831,13 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="s">
         <v>125</v>
-      </c>
-      <c r="H7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1845,21 +1845,21 @@
         <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s">
         <v>127</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>128</v>
-      </c>
-      <c r="H9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1867,7 +1867,7 @@
         <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1875,13 +1875,13 @@
         <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1906,7 +1906,7 @@
         <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1916,16 +1916,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1944,7 +1944,7 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1955,13 +1955,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -1972,7 +1972,7 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -1991,7 +1991,7 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2000,7 +2000,7 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2011,13 +2011,13 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="24"/>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2029,13 +2029,13 @@
         <v>27</v>
       </c>
       <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" t="s">
         <v>133</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>134</v>
-      </c>
-      <c r="H31" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2047,13 +2047,13 @@
         <v>27</v>
       </c>
       <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
         <v>136</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>137</v>
-      </c>
-      <c r="H32" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2061,10 +2061,10 @@
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2072,10 +2072,10 @@
         <v>115</v>
       </c>
       <c r="J34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2095,7 +2095,7 @@
         <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2106,13 +2106,13 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" s="24"/>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2124,13 +2124,13 @@
         <v>27</v>
       </c>
       <c r="F40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" t="s">
         <v>133</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>134</v>
-      </c>
-      <c r="H40" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -2142,13 +2142,13 @@
         <v>27</v>
       </c>
       <c r="F41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" t="s">
         <v>136</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>137</v>
-      </c>
-      <c r="H41" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -2156,10 +2156,10 @@
         <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -2167,10 +2167,10 @@
         <v>115</v>
       </c>
       <c r="J43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -2190,7 +2190,7 @@
         <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2207,13 +2207,13 @@
         <v>27</v>
       </c>
       <c r="F49" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" t="s">
         <v>139</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>140</v>
-      </c>
-      <c r="H49" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -2233,7 +2233,7 @@
         <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -2246,16 +2246,16 @@
       <c r="A54" s="27"/>
       <c r="B54" s="26"/>
       <c r="D54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" t="s">
         <v>165</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>166</v>
-      </c>
-      <c r="H54" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -2268,13 +2268,13 @@
         <v>70</v>
       </c>
       <c r="F55" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55" t="s">
         <v>143</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>144</v>
-      </c>
-      <c r="H55" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -2289,7 +2289,7 @@
         <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -2308,13 +2308,13 @@
         <v>27</v>
       </c>
       <c r="F59" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" t="s">
         <v>169</v>
       </c>
-      <c r="G59" t="s">
-        <v>170</v>
-      </c>
       <c r="H59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -2323,42 +2323,42 @@
         <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F61" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G61" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="D62" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -2376,7 +2376,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="27"/>
       <c r="B65" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -2385,7 +2385,7 @@
         <v>114</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -2397,22 +2397,22 @@
     <row r="68" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="27"/>
       <c r="D68" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="27"/>
       <c r="D69" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -2432,7 +2432,7 @@
         <v>114</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
@@ -2463,15 +2463,15 @@
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="H75" s="28" t="s">
         <v>287</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>288</v>
       </c>
       <c r="I75" s="28"/>
       <c r="J75" s="28"/>
@@ -2482,10 +2482,10 @@
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
@@ -2530,7 +2530,7 @@
         <v>114</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
@@ -2561,15 +2561,15 @@
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
       <c r="G82" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="H82" s="24" t="s">
         <v>291</v>
-      </c>
-      <c r="H82" s="24" t="s">
-        <v>292</v>
       </c>
       <c r="I82" s="24"/>
       <c r="J82" s="24"/>
@@ -2580,10 +2580,10 @@
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
@@ -2637,7 +2637,7 @@
         <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -2654,13 +2654,13 @@
         <v>27</v>
       </c>
       <c r="F91" t="s">
+        <v>145</v>
+      </c>
+      <c r="G91" t="s">
+        <v>147</v>
+      </c>
+      <c r="H91" t="s">
         <v>146</v>
-      </c>
-      <c r="G91" t="s">
-        <v>148</v>
-      </c>
-      <c r="H91" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -2668,25 +2668,25 @@
         <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B93" s="27"/>
       <c r="D93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E93" t="s">
         <v>73</v>
       </c>
       <c r="F93" t="s">
+        <v>149</v>
+      </c>
+      <c r="G93" t="s">
         <v>150</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>151</v>
-      </c>
-      <c r="H93" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
@@ -2718,13 +2718,13 @@
         <v>27</v>
       </c>
       <c r="F98" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" t="s">
         <v>153</v>
       </c>
-      <c r="G98" t="s">
-        <v>154</v>
-      </c>
       <c r="H98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -2736,13 +2736,13 @@
         <v>65</v>
       </c>
       <c r="F99" t="s">
+        <v>154</v>
+      </c>
+      <c r="G99" t="s">
         <v>155</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>156</v>
-      </c>
-      <c r="H99" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -2750,7 +2750,7 @@
         <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
@@ -2762,13 +2762,13 @@
         <v>59</v>
       </c>
       <c r="F101" t="s">
+        <v>157</v>
+      </c>
+      <c r="G101" t="s">
         <v>158</v>
       </c>
-      <c r="G101" t="s">
-        <v>159</v>
-      </c>
       <c r="H101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
@@ -2793,16 +2793,16 @@
         <v>113</v>
       </c>
       <c r="E105" t="s">
+        <v>171</v>
+      </c>
+      <c r="F105" t="s">
+        <v>207</v>
+      </c>
+      <c r="G105" t="s">
         <v>172</v>
       </c>
-      <c r="F105" t="s">
-        <v>208</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>173</v>
-      </c>
-      <c r="H105" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
@@ -2815,7 +2815,7 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
@@ -2826,16 +2826,16 @@
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="28"/>
       <c r="D109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G109" t="s">
+        <v>275</v>
+      </c>
+      <c r="H109" t="s">
         <v>276</v>
       </c>
-      <c r="H109" t="s">
+      <c r="L109" t="s">
         <v>277</v>
-      </c>
-      <c r="L109" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -2863,7 +2863,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -2873,21 +2873,21 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
@@ -2920,52 +2920,52 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
         <v>256</v>
-      </c>
-      <c r="B3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2978,8 +2978,8 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2998,7 +2998,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -3095,10 +3095,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -3179,10 +3179,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -3193,38 +3193,38 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -3235,72 +3235,72 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3357,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
@@ -3455,32 +3455,32 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B38" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -3567,10 +3567,10 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
         <v>162</v>
-      </c>
-      <c r="D44" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -3813,10 +3813,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -3827,82 +3827,82 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B63" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B64" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B65" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B66" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B67" t="str">
         <f>"3"</f>
@@ -3917,47 +3917,47 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D69" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B70" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D70" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B71" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3989,248 +3989,248 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="I1" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" t="s">
         <v>250</v>
       </c>
-      <c r="F2" t="s">
-        <v>251</v>
-      </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" t="s">
         <v>250</v>
       </c>
-      <c r="F3" t="s">
-        <v>251</v>
-      </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
         <v>247</v>
       </c>
-      <c r="B4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" t="s">
-        <v>248</v>
-      </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" t="s">
         <v>250</v>
       </c>
-      <c r="F4" t="s">
-        <v>251</v>
-      </c>
       <c r="G4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" t="s">
         <v>250</v>
       </c>
-      <c r="F5" t="s">
-        <v>251</v>
-      </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" t="s">
         <v>249</v>
       </c>
-      <c r="D7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>250</v>
       </c>
-      <c r="F7" t="s">
-        <v>251</v>
-      </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" t="s">
         <v>250</v>
       </c>
-      <c r="F8" t="s">
-        <v>251</v>
-      </c>
       <c r="G8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" t="s">
         <v>250</v>
       </c>
-      <c r="F9" t="s">
-        <v>251</v>
-      </c>
       <c r="G9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" t="s">
         <v>250</v>
       </c>
-      <c r="F10" t="s">
-        <v>251</v>
-      </c>
       <c r="G10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4242,9 +4242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>113</v>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>113</v>
@@ -4301,10 +4301,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4312,10 +4312,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>113</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
         <v>113</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>113</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>113</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
         <v>113</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
@@ -4415,7 +4415,7 @@
         <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>113</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
         <v>111</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>111</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
         <v>113</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
         <v>113</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
         <v>113</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
         <v>113</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B32" t="s">
         <v>113</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s">
         <v>111</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245229B-031E-4005-B2C5-EC95D0DEBD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71832317-DFE1-42A3-84C3-4DA8C89A2EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -929,9 +929,6 @@
     <t>Gibril</t>
   </si>
   <si>
-    <t xml:space="preserve">Volar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Isna </t>
   </si>
   <si>
@@ -1074,6 +1071,9 @@
   </si>
   <si>
     <t>data('GR') != '1' || (data('PARPAD') != '2' &amp;&amp; data('PARPAD3') != '1')</t>
+  </si>
+  <si>
+    <t>Voler</t>
   </si>
 </sst>
 </file>
@@ -1718,9 +1718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1801,10 +1801,10 @@
         <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
         <v>121</v>
@@ -1922,7 +1922,7 @@
         <v>258</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L17" t="s">
         <v>280</v>
@@ -1944,7 +1944,7 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1958,10 +1958,10 @@
         <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -1972,7 +1972,7 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -1991,7 +1991,7 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2000,7 +2000,7 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2014,10 +2014,10 @@
         <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2095,7 +2095,7 @@
         <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2109,10 +2109,10 @@
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2190,7 +2190,7 @@
         <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2333,32 +2333,32 @@
         <v>194</v>
       </c>
       <c r="F61" t="s">
+        <v>322</v>
+      </c>
+      <c r="G61" t="s">
         <v>323</v>
       </c>
-      <c r="G61" t="s">
-        <v>324</v>
-      </c>
       <c r="H61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="D62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G62" t="s">
+        <v>332</v>
+      </c>
+      <c r="H62" t="s">
         <v>333</v>
-      </c>
-      <c r="H62" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -2637,7 +2637,7 @@
         <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -2863,7 +2863,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -2977,9 +2977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -3095,10 +3095,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -3179,10 +3179,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" t="s">
         <v>293</v>
@@ -3207,10 +3207,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
         <v>294</v>
@@ -3221,10 +3221,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
         <v>295</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
         <v>296</v>
@@ -3263,44 +3263,44 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="D21" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3917,47 +3917,47 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B70" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B71" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
         <v>194</v>
@@ -4312,10 +4312,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>113</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>194</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s">
         <v>113</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s">
         <v>194</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71832317-DFE1-42A3-84C3-4DA8C89A2EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0864589A-7C33-4944-AED7-62E842554A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -893,9 +893,6 @@
     <t>Pagamentos Nascimento</t>
   </si>
   <si>
-    <t>data('ESTADOVIS') == '1' &amp;&amp; data('ABPART') == '1'</t>
-  </si>
-  <si>
     <t>OOP ANC</t>
   </si>
   <si>
@@ -1074,6 +1071,9 @@
   </si>
   <si>
     <t>Voler</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') == '1' &amp;&amp; data('GR') == '1'</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,6 +1237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1262,7 +1268,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1314,6 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1716,11 +1723,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1801,10 +1808,10 @@
         <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G4" t="s">
         <v>121</v>
@@ -1922,7 +1929,7 @@
         <v>258</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L17" t="s">
         <v>280</v>
@@ -1944,7 +1951,7 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1958,10 +1965,10 @@
         <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -1972,7 +1979,7 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -1991,7 +1998,7 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2000,7 +2007,7 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2014,10 +2021,10 @@
         <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2095,7 +2102,7 @@
         <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2109,10 +2116,10 @@
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2190,7 +2197,7 @@
         <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2228,7 +2235,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="27"/>
+      <c r="A52" s="31"/>
       <c r="B52" t="s">
         <v>114</v>
       </c>
@@ -2333,32 +2340,32 @@
         <v>194</v>
       </c>
       <c r="F61" t="s">
+        <v>321</v>
+      </c>
+      <c r="G61" t="s">
         <v>322</v>
       </c>
-      <c r="G61" t="s">
-        <v>323</v>
-      </c>
       <c r="H61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="D62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G62" t="s">
+        <v>331</v>
+      </c>
+      <c r="H62" t="s">
         <v>332</v>
-      </c>
-      <c r="H62" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -2427,472 +2434,478 @@
         <v>115</v>
       </c>
     </row>
+    <row r="72" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="27"/>
+    </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B74" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B77" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B78" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="31"/>
+      <c r="B79" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B82" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B83" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B74" s="28" t="s">
+      <c r="H84" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B86" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B87" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="27"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="27"/>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B97" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B98" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B77" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B78" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B80" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B81" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="H82" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B84" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B85" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="27"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="27"/>
-      <c r="B87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B89" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B90" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B91" s="27"/>
-      <c r="D91" t="s">
-        <v>113</v>
-      </c>
-      <c r="E91" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" t="s">
-        <v>145</v>
-      </c>
-      <c r="G91" t="s">
-        <v>147</v>
-      </c>
-      <c r="H91" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B92" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B93" s="27"/>
-      <c r="D93" t="s">
-        <v>163</v>
-      </c>
-      <c r="E93" t="s">
-        <v>73</v>
-      </c>
-      <c r="F93" t="s">
-        <v>149</v>
-      </c>
-      <c r="G93" t="s">
-        <v>150</v>
-      </c>
-      <c r="H93" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B94" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B95" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B96" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B97" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B98" s="25"/>
-      <c r="D98" t="s">
-        <v>113</v>
-      </c>
-      <c r="E98" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" t="s">
-        <v>152</v>
-      </c>
-      <c r="G98" t="s">
-        <v>153</v>
-      </c>
-      <c r="H98" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B99" s="25"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B99" s="27"/>
       <c r="D99" t="s">
         <v>113</v>
       </c>
       <c r="E99" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G99" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H99" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B100" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B100" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B101" s="25"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B101" s="27"/>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E101" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F101" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G101" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H101" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B102" s="25" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B102" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B103" s="25" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B103" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="19"/>
-      <c r="B104" s="28" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B104" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B105" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B105" s="28"/>
-      <c r="D105" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B106" s="25"/>
+      <c r="D106" t="s">
         <v>113</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" t="s">
+        <v>152</v>
+      </c>
+      <c r="G106" t="s">
+        <v>153</v>
+      </c>
+      <c r="H106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B107" s="25"/>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" t="s">
+        <v>65</v>
+      </c>
+      <c r="F107" t="s">
+        <v>154</v>
+      </c>
+      <c r="G107" t="s">
+        <v>155</v>
+      </c>
+      <c r="H107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B108" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B109" s="25"/>
+      <c r="D109" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109" t="s">
+        <v>158</v>
+      </c>
+      <c r="H109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B110" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B111" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="19"/>
+      <c r="B112" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B113" s="28"/>
+      <c r="D113" t="s">
+        <v>113</v>
+      </c>
+      <c r="E113" t="s">
         <v>171</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F113" t="s">
         <v>207</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G113" t="s">
         <v>172</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H113" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B106" s="28" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B114" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B107" s="28" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B115" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C115" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B108" s="28" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B116" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B109" s="28"/>
-      <c r="D109" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B117" s="28"/>
+      <c r="D117" t="s">
         <v>187</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G117" t="s">
         <v>275</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H117" t="s">
         <v>276</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L117" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B110" s="28" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B118" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="28" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B119" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A112" s="19"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A113" s="23"/>
-      <c r="B113" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A114" s="21"/>
-      <c r="B114" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" s="19"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" s="23"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" s="21"/>
+      <c r="B122" t="s">
         <v>114</v>
       </c>
-      <c r="C114" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B115" t="s">
+      <c r="C122" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D116" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D124" t="s">
         <v>187</v>
       </c>
-      <c r="G116" s="24" t="s">
+      <c r="G124" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="H116" s="24" t="s">
+      <c r="H124" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L124" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B118" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A119" s="21"/>
-      <c r="B119" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" s="21"/>
+      <c r="B127" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2977,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -3081,10 +3094,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -3095,10 +3108,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -3109,10 +3122,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -3123,10 +3136,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -3137,10 +3150,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -3151,10 +3164,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -3165,10 +3178,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -3179,10 +3192,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -3193,38 +3206,38 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -3235,72 +3248,72 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3917,47 +3930,47 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B70" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B71" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3972,7 +3985,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4209,16 +4222,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E10" t="s">
         <v>249</v>
@@ -4301,7 +4314,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
         <v>194</v>
@@ -4312,10 +4325,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -4334,7 +4347,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>113</v>
@@ -4577,7 +4590,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>194</v>
@@ -4588,7 +4601,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s">
         <v>113</v>
@@ -4621,7 +4634,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s">
         <v>194</v>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0864589A-7C33-4944-AED7-62E842554A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C81AB9-6D3C-427B-9C46-98931B3EF479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,7 +1073,7 @@
     <t>Voler</t>
   </si>
   <si>
-    <t>data('ESTADOVIS') == '1' &amp;&amp; data('GR') == '1'</t>
+    <t>data('ESTADOVIS') == '1' &amp;&amp; (data('GR') == '1' || data('GR_AINDA') == '1' )</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1083,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,6 +1153,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1268,7 +1275,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1321,6 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1726,8 +1734,8 @@
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2545,7 +2553,7 @@
       <c r="B82" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="32" t="s">
         <v>345</v>
       </c>
       <c r="D82" s="28"/>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C81AB9-6D3C-427B-9C46-98931B3EF479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9390B78-1308-462D-8AB0-D73B6B51E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30360" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="350">
   <si>
     <t>setting_name</t>
   </si>
@@ -995,9 +995,6 @@
     <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3' &amp;&amp; data('GR_LAST')=="1"</t>
   </si>
   <si>
-    <t xml:space="preserve">Name: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt; estave gravida visita passada. Ela continuar ser gravida? </t>
-  </si>
-  <si>
     <t>data('PARPAD') != '1' &amp;&amp; data('GR_AINDA')!="1"</t>
   </si>
   <si>
@@ -1074,6 +1071,21 @@
   </si>
   <si>
     <t>data('ESTADOVIS') == '1' &amp;&amp; (data('GR') == '1' || data('GR_AINDA') == '1' )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt; estave gravida visita passada. Ela continuar ser gravida (mesmo gravidez)? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt; estave gravida visita passada. Ela continuar ser gravida  (mesmo gravidez)? </t>
+  </si>
+  <si>
+    <t>VISNUMBER</t>
+  </si>
+  <si>
+    <t>From tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed: </t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1287,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1329,6 +1341,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1731,11 +1744,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1753,7 +1766,7 @@
     <col min="11" max="11" width="29.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>117</v>
       </c>
@@ -1791,13 +1804,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>255</v>
       </c>
@@ -1811,34 +1824,37 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="L4" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E4" t="s">
+      <c r="N4" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="O4" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H4" t="s">
+      <c r="Q4" s="24" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>113</v>
       </c>
@@ -1855,7 +1871,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -1863,7 +1879,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>255</v>
       </c>
@@ -1877,7 +1893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>114</v>
       </c>
@@ -1885,7 +1901,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>111</v>
       </c>
@@ -1899,23 +1915,23 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" t="s">
         <v>114</v>
@@ -1924,7 +1940,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1973,10 +1989,10 @@
         <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="H23" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2006,7 +2022,7 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2015,7 +2031,7 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2029,10 +2045,10 @@
         <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2110,7 +2126,7 @@
         <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2124,10 +2140,10 @@
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2205,7 +2221,7 @@
         <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2348,32 +2364,32 @@
         <v>194</v>
       </c>
       <c r="F61" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" t="s">
         <v>321</v>
       </c>
-      <c r="G61" t="s">
-        <v>322</v>
-      </c>
       <c r="H61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="D62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G62" t="s">
+        <v>330</v>
+      </c>
+      <c r="H62" t="s">
         <v>331</v>
-      </c>
-      <c r="H62" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -2554,7 +2570,7 @@
         <v>114</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
@@ -2661,7 +2677,7 @@
         <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -2884,7 +2900,7 @@
         <v>114</v>
       </c>
       <c r="C122" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
@@ -3290,10 +3306,10 @@
         <v>311</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -3938,47 +3954,47 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B70" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B71" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4261,11 +4277,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4322,7 +4338,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>194</v>
@@ -4333,10 +4349,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -4354,14 +4370,17 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>342</v>
+      <c r="A8" t="s">
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -4642,12 +4661,23 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s">
         <v>194</v>
       </c>
       <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9390B78-1308-462D-8AB0-D73B6B51E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA6FB5-4509-4B87-A1B9-B0857B4E797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30360" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="352">
   <si>
     <t>setting_name</t>
   </si>
@@ -1086,6 +1086,12 @@
   </si>
   <si>
     <t xml:space="preserve">Removed: </t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') != '2' &amp;&amp; data('ESTADOVIS') !='3' &amp;&amp; data('GR_LAST')=="1"&amp;&amp;data('GR_AINDA')=="2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt; esta gravida de novo? </t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1262,6 +1268,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1287,7 +1299,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1342,6 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1744,11 +1757,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2215,22 +2228,37 @@
         <v>115</v>
       </c>
     </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>350</v>
+      </c>
+    </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="29"/>
-      <c r="B47" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>319</v>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B49" s="24"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="D48" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" t="s">
+        <v>351</v>
+      </c>
+      <c r="H48" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
       <c r="D49" t="s">
         <v>113</v>
       </c>
@@ -2238,698 +2266,784 @@
         <v>27</v>
       </c>
       <c r="F49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="34"/>
+      <c r="B52" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" t="s">
+        <v>189</v>
+      </c>
+      <c r="K52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="34"/>
+      <c r="B53" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B54" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="29"/>
+      <c r="B56" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B57" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B58" s="24"/>
+      <c r="D58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
         <v>138</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G58" t="s">
         <v>139</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B50" s="24" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B59" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="29"/>
-      <c r="B51" s="24" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="29"/>
+      <c r="B60" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="31"/>
-      <c r="B52" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="31"/>
+      <c r="B61" t="s">
         <v>114</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C61" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="27"/>
-      <c r="B53" s="26" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="27"/>
+      <c r="B62" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="27"/>
-      <c r="B54" s="26"/>
-      <c r="D54" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="27"/>
+      <c r="B63" s="26"/>
+      <c r="D63" t="s">
         <v>255</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F63" t="s">
         <v>164</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G63" t="s">
         <v>165</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H63" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="27"/>
-      <c r="B55" s="26"/>
-      <c r="D55" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="27"/>
+      <c r="B64" s="26"/>
+      <c r="D64" t="s">
         <v>113</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E64" t="s">
         <v>70</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F64" t="s">
         <v>142</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G64" t="s">
         <v>143</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H64" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="27"/>
-      <c r="B56" s="26" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="27"/>
+      <c r="B65" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="27"/>
-      <c r="B57" s="5" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="27"/>
+      <c r="B66" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C66" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="27"/>
-      <c r="B58" s="5" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="27"/>
+      <c r="B67" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="27"/>
-      <c r="B59" s="5"/>
-      <c r="D59" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="27"/>
+      <c r="B68" s="5"/>
+      <c r="D68" t="s">
         <v>113</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E68" t="s">
         <v>27</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F68" t="s">
         <v>168</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G68" t="s">
         <v>169</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H68" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="27"/>
-      <c r="B60" s="5" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="27"/>
+      <c r="B69" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C69" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="27"/>
-      <c r="B61" s="5"/>
-      <c r="D61" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="27"/>
+      <c r="B70" s="5"/>
+      <c r="D70" t="s">
         <v>194</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F70" t="s">
         <v>320</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G70" t="s">
         <v>321</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H70" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="27"/>
-      <c r="B62" s="5"/>
-      <c r="D62" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="27"/>
+      <c r="B71" s="5"/>
+      <c r="D71" t="s">
         <v>333</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E71" t="s">
         <v>323</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F71" t="s">
         <v>322</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G71" t="s">
         <v>330</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H71" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="27"/>
-      <c r="B63" s="5" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="27"/>
+      <c r="B72" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="27"/>
-      <c r="B64" s="5" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="27"/>
+      <c r="B73" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="27"/>
-      <c r="B65" s="5" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="27"/>
+      <c r="B74" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="27"/>
-      <c r="B66" s="19" t="s">
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="27"/>
+      <c r="B75" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C75" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="27"/>
-      <c r="B67" s="19" t="s">
+    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="27"/>
+      <c r="B76" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="27"/>
-      <c r="D68" s="19" t="s">
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="27"/>
+      <c r="D77" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="G68" s="19" t="s">
+      <c r="G77" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H77" s="19" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="27"/>
-      <c r="D69" s="19" t="s">
+    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="27"/>
+      <c r="D78" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E78" s="19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="27"/>
-      <c r="B70" s="19" t="s">
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="27"/>
+      <c r="B79" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="27"/>
-      <c r="B71" s="19" t="s">
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="27"/>
+      <c r="B80" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="27"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="24" t="s">
+    <row r="81" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="27"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B82" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C82" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B74" s="24" t="s">
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B83" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24" t="s">
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24" t="s">
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="H75" s="24" t="s">
+      <c r="H84" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24" t="s">
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E85" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B77" s="24" t="s">
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B86" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B78" s="24" t="s">
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B87" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="31"/>
-      <c r="B79" s="24" t="s">
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="31"/>
+      <c r="B88" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B82" s="28" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B91" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C91" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B83" s="28" t="s">
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B92" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28" t="s">
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28" t="s">
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="H93" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28" t="s">
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E85" s="28" t="s">
+      <c r="E94" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B86" s="28" t="s">
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B95" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B87" s="28" t="s">
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B96" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="27"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="27"/>
-      <c r="B95" t="s">
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="27"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="27"/>
+      <c r="B104" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B97" s="27" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B106" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C106" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B98" s="27" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B107" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B99" s="27"/>
-      <c r="D99" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B108" s="27"/>
+      <c r="D108" t="s">
         <v>113</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E108" t="s">
         <v>27</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F108" t="s">
         <v>145</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G108" t="s">
         <v>147</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H108" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B100" s="27" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B109" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B101" s="27"/>
-      <c r="D101" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B110" s="27"/>
+      <c r="D110" t="s">
         <v>163</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E110" t="s">
         <v>73</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F110" t="s">
         <v>149</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G110" t="s">
         <v>150</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H110" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B102" s="27" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B111" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B103" s="27" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B112" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B104" s="27" t="s">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B113" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B105" s="25" t="s">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B114" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B106" s="25"/>
-      <c r="D106" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B115" s="25"/>
+      <c r="D115" t="s">
         <v>113</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E115" t="s">
         <v>27</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F115" t="s">
         <v>152</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G115" t="s">
         <v>153</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H115" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B107" s="25"/>
-      <c r="D107" t="s">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B116" s="25"/>
+      <c r="D116" t="s">
         <v>113</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E116" t="s">
         <v>65</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F116" t="s">
         <v>154</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G116" t="s">
         <v>155</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H116" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B108" s="25" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B117" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C117" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B109" s="25"/>
-      <c r="D109" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B118" s="25"/>
+      <c r="D118" t="s">
         <v>113</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E118" t="s">
         <v>59</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F118" t="s">
         <v>157</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G118" t="s">
         <v>158</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H118" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B110" s="25" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B119" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B111" s="25" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B120" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="19"/>
-      <c r="B112" s="28" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" s="19"/>
+      <c r="B121" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B113" s="28"/>
-      <c r="D113" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B122" s="28"/>
+      <c r="D122" t="s">
         <v>113</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E122" t="s">
         <v>171</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F122" t="s">
         <v>207</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G122" t="s">
         <v>172</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H122" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B114" s="28" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B123" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B115" s="28" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B124" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C124" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B116" s="28" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B125" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B117" s="28"/>
-      <c r="D117" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B126" s="28"/>
+      <c r="D126" t="s">
         <v>187</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G126" t="s">
         <v>275</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H126" t="s">
         <v>276</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L126" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B118" s="28" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B127" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B119" s="28" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B128" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A120" s="19"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A121" s="23"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A122" s="21"/>
-      <c r="B122" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" s="19"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" s="23"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A131" s="21"/>
+      <c r="B131" t="s">
         <v>114</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C131" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B123" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D124" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D133" t="s">
         <v>187</v>
       </c>
-      <c r="G124" s="24" t="s">
+      <c r="G133" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="H124" s="24" t="s">
+      <c r="H133" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L133" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B126" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A127" s="21"/>
-      <c r="B127" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" s="21"/>
+      <c r="B136" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4279,7 +4393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA6FB5-4509-4B87-A1B9-B0857B4E797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB34C5-5455-4274-9C46-C009F914FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="414">
   <si>
     <t>setting_name</t>
   </si>
@@ -776,12 +776,6 @@
     <t>Mulher na idade fertil - visita</t>
   </si>
   <si>
-    <t>vac</t>
-  </si>
-  <si>
-    <t>VAC</t>
-  </si>
-  <si>
     <t>MIF_VISIT</t>
   </si>
   <si>
@@ -869,9 +863,6 @@
     <t>Registrar Vacines</t>
   </si>
   <si>
-    <t>linked table vac removed</t>
-  </si>
-  <si>
     <t>linked_table pregnancies removed</t>
   </si>
   <si>
@@ -887,9 +878,6 @@
     <t>mif_v_oop_anc</t>
   </si>
   <si>
-    <t>data('ESTADOVIS') == '1' &amp;&amp; (data('ABPARTTIPO') == '1'||data('ABPARTTIPO') == '2')</t>
-  </si>
-  <si>
     <t>Pagamentos Nascimento</t>
   </si>
   <si>
@@ -899,9 +887,6 @@
     <t>Pagamentos CPN</t>
   </si>
   <si>
-    <t>data('ESTADOVIS') == '1' &amp;&amp; data('ABPARTTIPO') == '1'</t>
-  </si>
-  <si>
     <t>mif_v_oop_vac</t>
   </si>
   <si>
@@ -1064,9 +1049,6 @@
     <t>ASSISTANT</t>
   </si>
   <si>
-    <t>data('GR') != '1' || (data('PARPAD') != '2' &amp;&amp; data('PARPAD3') != '1')</t>
-  </si>
-  <si>
     <t>Voler</t>
   </si>
   <si>
@@ -1092,6 +1074,232 @@
   </si>
   <si>
     <t xml:space="preserve">Name: &lt;b&gt;{{data.NOMEMAE}}&lt;/b&gt; esta gravida de novo? </t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') ==  '1' &amp;&amp; data('CICA') == null</t>
+  </si>
+  <si>
+    <t>Scar status</t>
+  </si>
+  <si>
+    <t>Estado da cicatriz</t>
+  </si>
+  <si>
+    <t>Added 10-11-2023 - obs may need to shift the end if back</t>
+  </si>
+  <si>
+    <t>linked table vac removed: Added - 10-11-2023</t>
+  </si>
+  <si>
+    <t>MIF_VAC</t>
+  </si>
+  <si>
+    <t>mif_vac</t>
+  </si>
+  <si>
+    <t>VAC1DATA</t>
+  </si>
+  <si>
+    <t>VAC2DATA</t>
+  </si>
+  <si>
+    <t>VAC3DATA</t>
+  </si>
+  <si>
+    <t>VAC4DATA</t>
+  </si>
+  <si>
+    <t>VAC5DATA</t>
+  </si>
+  <si>
+    <t>VAC6DATA</t>
+  </si>
+  <si>
+    <t>VAC7DATA</t>
+  </si>
+  <si>
+    <t>VAC8DATA</t>
+  </si>
+  <si>
+    <t>VAC9DATA</t>
+  </si>
+  <si>
+    <t>VAC10DATA</t>
+  </si>
+  <si>
+    <t>VAC11DATA</t>
+  </si>
+  <si>
+    <t>VAC12DATA</t>
+  </si>
+  <si>
+    <t>VAC13DATA</t>
+  </si>
+  <si>
+    <t>VAC14DATA</t>
+  </si>
+  <si>
+    <t>VAC15DATA</t>
+  </si>
+  <si>
+    <t>VAC16DATA</t>
+  </si>
+  <si>
+    <t>VAC17DATA</t>
+  </si>
+  <si>
+    <t>VAC18DATA</t>
+  </si>
+  <si>
+    <t>VAC19DATA</t>
+  </si>
+  <si>
+    <t>VAC20DATA</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), VAC1DATA: data('VAC1DATA'), VAC2DATA: data('VAC2DATA'),VAC3DATA: data('VAC3DATA'), VAC4DATA: data('VAC4DATA'), VAC5DATA: data('VAC5DATA'), VAC6DATA: data('VAC6DATA'), VAC7DATA: data('VAC7DATA'), VAC8DATA: data('VAC8DATA'), VAC9DATA: data('VAC9DATA'), VAC10DATA: data('VAC10DATA'), VAC11DATA: data('VAC11DATA'), VAC12DATA: data('VAC12DATA'),VAC13DATA: data('VAC13DATA'), VAC14DATA: data('VAC14DATA'), VAC15DATA: data('VAC15DATA'), VAC16DATA: data('VAC16DATA'), VAC17DATA: data('VAC17DATA'), VAC18DATA: data('VAC18DATA'), VAC19DATA: data('VAC19DATA'),     VAC20DATA: data('VAC20DATA'), VISITDATE: data('CONT'), VISITID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>Twins</t>
+  </si>
+  <si>
+    <t>data('ABPARTTIPO') == '4'</t>
+  </si>
+  <si>
+    <t>Is the 1st twin  still alive?</t>
+  </si>
+  <si>
+    <t>ABPARTNV2</t>
+  </si>
+  <si>
+    <t>ABPARTNV_TEMPO2</t>
+  </si>
+  <si>
+    <t>ABPARTNV_TEMPO_UNIT2</t>
+  </si>
+  <si>
+    <t>Is the 2nd twin  still alive?</t>
+  </si>
+  <si>
+    <t>O segundo gemeo ainda está viva?</t>
+  </si>
+  <si>
+    <t>O primeiro gemeo ainda está viva?</t>
+  </si>
+  <si>
+    <t>ABPARTNV3</t>
+  </si>
+  <si>
+    <t>ABPARTNV_TEMPO3</t>
+  </si>
+  <si>
+    <t>ABPARTNV_TEMPO_UNIT3</t>
+  </si>
+  <si>
+    <t>TRIGEMEOS</t>
+  </si>
+  <si>
+    <t>More than 2 children</t>
+  </si>
+  <si>
+    <t>Mais de 2 gemeos?</t>
+  </si>
+  <si>
+    <t>data('TRIGEMEOS')=="1"</t>
+  </si>
+  <si>
+    <t>data('ABPARTNV2') == '2'</t>
+  </si>
+  <si>
+    <t>O terceiro gemeo ainda está viva?</t>
+  </si>
+  <si>
+    <t>data('ABPARTNV3') == '2'</t>
+  </si>
+  <si>
+    <t>GEMEOS</t>
+  </si>
+  <si>
+    <t>ABPARTTIPO_G1</t>
+  </si>
+  <si>
+    <t>birthoutcome2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>data('ABPARTTIPO_G1')=="1"</t>
+  </si>
+  <si>
+    <t>ABPARTTIPO_G2</t>
+  </si>
+  <si>
+    <t>Twin 1: Type of delivery</t>
+  </si>
+  <si>
+    <t>Gemeo 1: Tipo de parto</t>
+  </si>
+  <si>
+    <t>Twin 2: Type of delivery</t>
+  </si>
+  <si>
+    <t>Gemeo 2: Tipo de parto</t>
+  </si>
+  <si>
+    <t>data('ABPARTTIPO_G2')=="1"</t>
+  </si>
+  <si>
+    <t>Is the 3rd twin  still alive?</t>
+  </si>
+  <si>
+    <t>ABPARTTIPO_G3</t>
+  </si>
+  <si>
+    <t>Twin 3: Type of delivery</t>
+  </si>
+  <si>
+    <t>Gemeo 3: Tipo de parto</t>
+  </si>
+  <si>
+    <t>data('ABPARTTIPO_G3')=="1"</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') == '1' &amp;&amp; (data('ABPARTTIPO') == '1'||data('ABPARTTIPO') == '2' || data('ABPARTTIPO_G1')!= null ||data('ABPARTTIPO_G2') != null ||data('ABPARTTIPO_G3') != null)</t>
+  </si>
+  <si>
+    <t>Gêmeos</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') == '1' &amp;&amp; (data('ABPARTTIPO') == '1' || data('ABPARTTIPO_G1') == '1' ||data('ABPARTTIPO_G2') == '1' ||data('ABPARTTIPO_G3') == '1')</t>
+  </si>
+  <si>
+    <t>data('GR') != '1' &amp;&amp; data('PARPAD') != '1' &amp;&amp; data('PARPAD3') != '1' &amp;&amp; data('ESTADOVIS')!='3'&amp;&amp; data('ESTADOVIS')!='2'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> data('PARPAD') != '1' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data('PARPAD3') != '1' &amp;&amp; data('ESTADOVIS')!='3'&amp;&amp; data('ESTADOVIS')!='2'</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1183,7 +1391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1258,12 +1466,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1271,6 +1473,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,7 +1531,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1351,10 +1583,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1644,7 +1880,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1681,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1689,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>270519</v>
+        <v>10112023</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1697,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1757,11 +1993,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <pane ySplit="10275" topLeftCell="A44"/>
+      <selection activeCell="A169" sqref="A169"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1825,7 +2062,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -1839,16 +2076,16 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="L4" s="24" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>113</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>341</v>
+        <v>309</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>336</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>121</v>
@@ -1894,7 +2131,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F9" t="s">
         <v>126</v>
@@ -1950,7 +2187,7 @@
         <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -1963,13 +2200,13 @@
         <v>187</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1984,31 +2221,34 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
       <c r="B21" t="s">
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+      <c r="A22" s="34"/>
       <c r="B22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="34"/>
       <c r="D23" t="s">
         <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H23" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
       <c r="D24" t="s">
         <v>113</v>
       </c>
@@ -2016,15 +2256,17 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
       <c r="B25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
       <c r="B26" t="s">
         <v>115</v>
       </c>
@@ -2035,36 +2277,39 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
+      <c r="A28" s="21"/>
       <c r="B28" t="s">
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="21"/>
       <c r="B29" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="21"/>
       <c r="B30" s="24"/>
       <c r="D30" t="s">
         <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H30" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="21"/>
       <c r="B31" s="24"/>
       <c r="D31" t="s">
         <v>113</v>
@@ -2083,6 +2328,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="21"/>
       <c r="B32" s="24"/>
       <c r="D32" t="s">
         <v>113</v>
@@ -2101,6 +2347,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="21"/>
       <c r="B33" s="24" t="s">
         <v>114</v>
       </c>
@@ -2112,6 +2359,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="21"/>
       <c r="B34" s="24" t="s">
         <v>115</v>
       </c>
@@ -2123,43 +2371,47 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="21"/>
       <c r="B35" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
+      <c r="A37" s="35"/>
       <c r="B37" t="s">
         <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="35"/>
       <c r="B38" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="35"/>
       <c r="B39" s="24"/>
       <c r="D39" t="s">
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H39" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="35"/>
       <c r="B40" s="24"/>
       <c r="D40" t="s">
         <v>113</v>
@@ -2178,6 +2430,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="35"/>
       <c r="B41" s="24"/>
       <c r="D41" t="s">
         <v>113</v>
@@ -2196,6 +2449,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="35"/>
       <c r="B42" s="24" t="s">
         <v>114</v>
       </c>
@@ -2207,6 +2461,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="35"/>
       <c r="B43" s="24" t="s">
         <v>115</v>
       </c>
@@ -2218,47 +2473,48 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="35"/>
       <c r="B44" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="33" t="s">
         <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="33"/>
       <c r="D48" t="s">
         <v>187</v>
       </c>
       <c r="G48" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H48" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="33"/>
       <c r="D49" t="s">
         <v>113</v>
       </c>
@@ -2276,8 +2532,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="33"/>
       <c r="D50" t="s">
         <v>113</v>
       </c>
@@ -2295,8 +2551,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="33" t="s">
         <v>114</v>
       </c>
       <c r="C51" t="s">
@@ -2307,8 +2563,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="33" t="s">
         <v>115</v>
       </c>
       <c r="J52" t="s">
@@ -2319,31 +2575,34 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="36"/>
       <c r="B54" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="29"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="37"/>
       <c r="B57" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="37"/>
       <c r="B58" s="24"/>
       <c r="D58" t="s">
         <v>113</v>
@@ -2362,18 +2621,19 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="37"/>
       <c r="B59" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="29"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="31"/>
+      <c r="A61" s="30"/>
       <c r="B61" t="s">
         <v>114</v>
       </c>
@@ -2391,7 +2651,7 @@
       <c r="A63" s="27"/>
       <c r="B63" s="26"/>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F63" t="s">
         <v>164</v>
@@ -2430,620 +2690,1123 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="27"/>
-      <c r="B66" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" t="s">
-        <v>167</v>
-      </c>
+      <c r="B66" s="26"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="27"/>
       <c r="B67" s="5" t="s">
-        <v>12</v>
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="27"/>
-      <c r="B68" s="5"/>
-      <c r="D68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" t="s">
-        <v>168</v>
-      </c>
-      <c r="G68" t="s">
-        <v>169</v>
-      </c>
-      <c r="H68" t="s">
-        <v>228</v>
+      <c r="B68" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="27"/>
-      <c r="B69" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" t="s">
-        <v>170</v>
+      <c r="B69" s="5"/>
+      <c r="D69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" t="s">
+        <v>169</v>
+      </c>
+      <c r="H69" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="27"/>
-      <c r="B70" s="5"/>
-      <c r="D70" t="s">
-        <v>194</v>
-      </c>
-      <c r="F70" t="s">
-        <v>320</v>
-      </c>
-      <c r="G70" t="s">
-        <v>321</v>
-      </c>
-      <c r="H70" t="s">
-        <v>334</v>
+      <c r="B70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="D71" t="s">
-        <v>333</v>
-      </c>
-      <c r="E71" t="s">
-        <v>323</v>
+        <v>194</v>
       </c>
       <c r="F71" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G71" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="H71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="27"/>
-      <c r="B72" s="5" t="s">
-        <v>115</v>
+      <c r="B72" s="5"/>
+      <c r="D72" t="s">
+        <v>328</v>
+      </c>
+      <c r="E72" t="s">
+        <v>318</v>
+      </c>
+      <c r="F72" t="s">
+        <v>317</v>
+      </c>
+      <c r="G72" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="27"/>
       <c r="B73" s="5" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="27"/>
       <c r="B74" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="27"/>
+      <c r="B75" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="37"/>
+      <c r="B76" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="37"/>
+      <c r="B77" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="37"/>
+      <c r="B78" s="21"/>
+      <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="G78" t="s">
+        <v>399</v>
+      </c>
+      <c r="H78" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="37"/>
+      <c r="B79" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C79" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="37"/>
+      <c r="B80" s="21"/>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" t="s">
+        <v>376</v>
+      </c>
+      <c r="H80" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="37"/>
+      <c r="B81" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="37"/>
+      <c r="B82" s="21"/>
+      <c r="D82" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" t="s">
+        <v>315</v>
+      </c>
+      <c r="G82" t="s">
+        <v>316</v>
+      </c>
+      <c r="H82" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="37"/>
+      <c r="B83" s="21"/>
+      <c r="D83" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" t="s">
+        <v>318</v>
+      </c>
+      <c r="F83" t="s">
+        <v>317</v>
+      </c>
+      <c r="G83" t="s">
+        <v>325</v>
+      </c>
+      <c r="H83" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="37"/>
+      <c r="B84" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="37"/>
+      <c r="B85" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="37"/>
+      <c r="B86" s="21"/>
+      <c r="D86" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="G86" t="s">
+        <v>401</v>
+      </c>
+      <c r="H86" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="37"/>
+      <c r="B87" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C87" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="37"/>
+      <c r="B88" s="21"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="37"/>
+      <c r="B89" s="21"/>
+      <c r="D89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" t="s">
+        <v>377</v>
+      </c>
+      <c r="G89" t="s">
+        <v>380</v>
+      </c>
+      <c r="H89" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="37"/>
+      <c r="B90" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="37"/>
+      <c r="B91" s="21"/>
+      <c r="D91" t="s">
+        <v>194</v>
+      </c>
+      <c r="F91" t="s">
+        <v>378</v>
+      </c>
+      <c r="G91" t="s">
+        <v>316</v>
+      </c>
+      <c r="H91" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="37"/>
+      <c r="B92" s="21"/>
+      <c r="D92" t="s">
+        <v>328</v>
+      </c>
+      <c r="E92" t="s">
+        <v>318</v>
+      </c>
+      <c r="F92" t="s">
+        <v>379</v>
+      </c>
+      <c r="G92" t="s">
+        <v>325</v>
+      </c>
+      <c r="H92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="37"/>
+      <c r="B93" s="21"/>
+      <c r="D93" t="s">
+        <v>113</v>
+      </c>
+      <c r="E93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" t="s">
+        <v>386</v>
+      </c>
+      <c r="G93" t="s">
+        <v>387</v>
+      </c>
+      <c r="H93" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="37"/>
+      <c r="B94" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="37"/>
+      <c r="B95" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="37"/>
+      <c r="B96" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="37"/>
+      <c r="B97" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="21"/>
+      <c r="B99" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="D100" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G100" t="s">
+        <v>406</v>
+      </c>
+      <c r="H100" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C101" t="s">
+        <v>408</v>
+      </c>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="D102" t="s">
+        <v>113</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s">
+        <v>383</v>
+      </c>
+      <c r="G102" t="s">
+        <v>404</v>
+      </c>
+      <c r="H102" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="21"/>
+      <c r="B103" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="D104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
+        <v>384</v>
+      </c>
+      <c r="G104" t="s">
+        <v>316</v>
+      </c>
+      <c r="H104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="D105" t="s">
+        <v>328</v>
+      </c>
+      <c r="E105" t="s">
+        <v>318</v>
+      </c>
+      <c r="F105" t="s">
+        <v>385</v>
+      </c>
+      <c r="G105" t="s">
+        <v>325</v>
+      </c>
+      <c r="H105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="21"/>
+      <c r="B106" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="21"/>
+      <c r="B107" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="21"/>
+      <c r="B108" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="27"/>
+      <c r="B110" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="27"/>
+      <c r="B111" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="27"/>
+      <c r="D112" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="27"/>
+      <c r="D113" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="27"/>
+      <c r="B114" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="27"/>
+      <c r="B115" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="27"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" s="29"/>
+      <c r="B117" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A118" s="29"/>
+      <c r="B118" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" s="29"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" s="29"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" s="29"/>
+      <c r="B121" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" s="29"/>
+      <c r="B122" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" s="30"/>
+      <c r="B123" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" s="37"/>
+      <c r="B126" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="28"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" s="37"/>
+      <c r="B127" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="28"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" s="37"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H128" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="I128" s="28"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="28"/>
+      <c r="L128" s="28"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" s="37"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="28"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" s="37"/>
+      <c r="B130" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="28"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A131" s="37"/>
+      <c r="B131" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="28"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A134" s="37"/>
+      <c r="B134" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" t="s">
+        <v>412</v>
+      </c>
+      <c r="L134" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" s="37"/>
+      <c r="B135" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" s="37"/>
+      <c r="B136" s="27"/>
+      <c r="D136" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" t="s">
+        <v>145</v>
+      </c>
+      <c r="G136" t="s">
+        <v>147</v>
+      </c>
+      <c r="H136" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A137" s="37"/>
+      <c r="B137" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" s="37"/>
+      <c r="B138" s="27"/>
+      <c r="D138" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" t="s">
+        <v>73</v>
+      </c>
+      <c r="F138" t="s">
+        <v>149</v>
+      </c>
+      <c r="G138" t="s">
+        <v>150</v>
+      </c>
+      <c r="H138" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" s="37"/>
+      <c r="B139" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" s="37"/>
+      <c r="B140" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" s="37"/>
+      <c r="B141" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" s="38"/>
+      <c r="B142" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C142" t="s">
+        <v>413</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" s="21"/>
+      <c r="B143" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" s="21"/>
+      <c r="B144" s="25"/>
+      <c r="D144" t="s">
+        <v>113</v>
+      </c>
+      <c r="E144" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" t="s">
+        <v>152</v>
+      </c>
+      <c r="G144" t="s">
+        <v>153</v>
+      </c>
+      <c r="H144" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" s="21"/>
+      <c r="B145" s="25"/>
+      <c r="D145" t="s">
+        <v>113</v>
+      </c>
+      <c r="E145" t="s">
+        <v>65</v>
+      </c>
+      <c r="F145" t="s">
+        <v>154</v>
+      </c>
+      <c r="G145" t="s">
+        <v>155</v>
+      </c>
+      <c r="H145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" s="21"/>
+      <c r="B146" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" s="21"/>
+      <c r="B147" s="25"/>
+      <c r="D147" t="s">
+        <v>113</v>
+      </c>
+      <c r="E147" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" t="s">
+        <v>157</v>
+      </c>
+      <c r="G147" t="s">
+        <v>158</v>
+      </c>
+      <c r="H147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A148" s="21"/>
+      <c r="B148" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A149" s="21"/>
+      <c r="B149" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A150" s="21"/>
+      <c r="B150" s="27"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A151" s="37"/>
+      <c r="B151" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152" s="37"/>
+      <c r="B152" s="28"/>
+      <c r="D152" t="s">
+        <v>113</v>
+      </c>
+      <c r="E152" t="s">
+        <v>171</v>
+      </c>
+      <c r="F152" t="s">
+        <v>207</v>
+      </c>
+      <c r="G152" t="s">
+        <v>172</v>
+      </c>
+      <c r="H152" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153" s="37"/>
+      <c r="B153" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" s="37"/>
+      <c r="B154" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C154" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" s="37"/>
+      <c r="B155" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" s="37"/>
+      <c r="B156" s="28"/>
+      <c r="D156" t="s">
+        <v>187</v>
+      </c>
+      <c r="G156" t="s">
+        <v>273</v>
+      </c>
+      <c r="H156" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="27"/>
-      <c r="B75" s="19" t="s">
+      <c r="L156" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157" s="37"/>
+      <c r="B157" s="28"/>
+      <c r="D157" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E157" t="s">
+        <v>352</v>
+      </c>
+      <c r="L157" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158" s="37"/>
+      <c r="B158" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" s="37"/>
+      <c r="B159" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" s="38"/>
+      <c r="B160" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A161" s="5"/>
+      <c r="B161" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="27"/>
-      <c r="B76" s="19" t="s">
+      <c r="C161" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A162" s="5"/>
+      <c r="B162" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="27"/>
-      <c r="D77" s="19" t="s">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A163" s="5"/>
+      <c r="D163" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="27"/>
-      <c r="D78" s="19" t="s">
+      <c r="G163" t="s">
+        <v>347</v>
+      </c>
+      <c r="H163" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A164" s="5"/>
+      <c r="D164" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="27"/>
-      <c r="B79" s="19" t="s">
+      <c r="E164" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A165" s="5"/>
+      <c r="B165" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="27"/>
-      <c r="B80" s="19" t="s">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A166" s="5"/>
+      <c r="B166" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="27"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B82" s="24" t="s">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A167" s="23"/>
+      <c r="B167" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A168" s="21"/>
+      <c r="B168" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B83" s="24" t="s">
+      <c r="C168" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24" t="s">
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D170" t="s">
         <v>187</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B86" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B87" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="31"/>
-      <c r="B88" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B91" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B92" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="H93" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B95" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B96" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="27"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="27"/>
-      <c r="B104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B106" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B107" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B108" s="27"/>
-      <c r="D108" t="s">
-        <v>113</v>
-      </c>
-      <c r="E108" t="s">
-        <v>27</v>
-      </c>
-      <c r="F108" t="s">
-        <v>145</v>
-      </c>
-      <c r="G108" t="s">
-        <v>147</v>
-      </c>
-      <c r="H108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B109" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B110" s="27"/>
-      <c r="D110" t="s">
-        <v>163</v>
-      </c>
-      <c r="E110" t="s">
-        <v>73</v>
-      </c>
-      <c r="F110" t="s">
-        <v>149</v>
-      </c>
-      <c r="G110" t="s">
-        <v>150</v>
-      </c>
-      <c r="H110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B111" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B112" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B113" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B114" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B115" s="25"/>
-      <c r="D115" t="s">
-        <v>113</v>
-      </c>
-      <c r="E115" t="s">
-        <v>27</v>
-      </c>
-      <c r="F115" t="s">
-        <v>152</v>
-      </c>
-      <c r="G115" t="s">
-        <v>153</v>
-      </c>
-      <c r="H115" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B116" s="25"/>
-      <c r="D116" t="s">
-        <v>113</v>
-      </c>
-      <c r="E116" t="s">
-        <v>65</v>
-      </c>
-      <c r="F116" t="s">
-        <v>154</v>
-      </c>
-      <c r="G116" t="s">
-        <v>155</v>
-      </c>
-      <c r="H116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B117" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C117" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B118" s="25"/>
-      <c r="D118" t="s">
-        <v>113</v>
-      </c>
-      <c r="E118" t="s">
-        <v>59</v>
-      </c>
-      <c r="F118" t="s">
-        <v>157</v>
-      </c>
-      <c r="G118" t="s">
-        <v>158</v>
-      </c>
-      <c r="H118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B119" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B120" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A121" s="19"/>
-      <c r="B121" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B122" s="28"/>
-      <c r="D122" t="s">
-        <v>113</v>
-      </c>
-      <c r="E122" t="s">
-        <v>171</v>
-      </c>
-      <c r="F122" t="s">
-        <v>207</v>
-      </c>
-      <c r="G122" t="s">
-        <v>172</v>
-      </c>
-      <c r="H122" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B123" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B124" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C124" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B125" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B126" s="28"/>
-      <c r="D126" t="s">
-        <v>187</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="G170" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H170" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="L170" t="s">
         <v>275</v>
       </c>
-      <c r="H126" t="s">
-        <v>276</v>
-      </c>
-      <c r="L126" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B127" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B128" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A129" s="19"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A130" s="23"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A131" s="21"/>
-      <c r="B131" t="s">
-        <v>114</v>
-      </c>
-      <c r="C131" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D133" t="s">
-        <v>187</v>
-      </c>
-      <c r="G133" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="H133" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="L133" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B135" t="s">
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A136" s="21"/>
-      <c r="B136" t="s">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" s="21"/>
+      <c r="B173" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3059,7 +3822,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3099,7 +3862,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
         <v>222</v>
@@ -3108,12 +3871,12 @@
         <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>194</v>
@@ -3126,11 +3889,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3232,10 +3995,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -3246,10 +4009,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -3260,10 +4023,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -3274,10 +4037,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -3288,10 +4051,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -3302,10 +4065,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -3316,10 +4079,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -3330,10 +4093,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -3344,38 +4107,38 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -3386,72 +4149,72 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3801,91 +4564,76 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="B50" t="str">
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>374</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>410</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" t="s">
-        <v>76</v>
+        <v>395</v>
+      </c>
+      <c r="B51" t="str">
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="8"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" t="s">
-        <v>79</v>
+        <v>395</v>
+      </c>
+      <c r="B52" t="str">
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="9"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E55" s="8"/>
     </row>
@@ -3894,221 +4642,281 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>208</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B66" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C66" t="s">
         <v>211</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D66" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>209</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B67" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C67" t="s">
         <v>212</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D67" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>209</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B68" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C68" t="s">
         <v>213</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D68" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>214</v>
-      </c>
-      <c r="B65" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>214</v>
-      </c>
-      <c r="B66" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>214</v>
-      </c>
-      <c r="B67" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="B70" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="B71" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>326</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>329</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>320</v>
+      </c>
+      <c r="D74" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>321</v>
+      </c>
+      <c r="D75" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +4931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4133,7 +4941,7 @@
     <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.81640625" customWidth="1"/>
     <col min="8" max="8" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4167,7 +4975,7 @@
         <v>193</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -4184,13 +4992,13 @@
         <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" t="s">
         <v>250</v>
-      </c>
-      <c r="G2" t="s">
-        <v>252</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>184</v>
@@ -4204,19 +5012,19 @@
         <v>174</v>
       </c>
       <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" t="s">
         <v>261</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G3" t="s">
-        <v>263</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>184</v>
@@ -4224,25 +5032,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>174</v>
       </c>
       <c r="C4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" t="s">
         <v>247</v>
       </c>
-      <c r="D4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" t="s">
-        <v>249</v>
-      </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>373</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>184</v>
@@ -4250,25 +5058,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
         <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>184</v>
@@ -4276,22 +5084,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
         <v>174</v>
       </c>
       <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" t="s">
         <v>248</v>
-      </c>
-      <c r="D7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" t="s">
-        <v>250</v>
       </c>
       <c r="G7" t="s">
         <v>184</v>
@@ -4303,30 +5111,30 @@
         <v>132</v>
       </c>
       <c r="J7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>184</v>
@@ -4334,25 +5142,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
         <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>184</v>
@@ -4360,25 +5168,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
         <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>184</v>
@@ -4391,11 +5199,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4406,7 +5214,7 @@
     <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -4417,7 +5225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -4428,18 +5236,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -4450,9 +5258,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>194</v>
@@ -4461,20 +5269,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s">
         <v>113</v>
@@ -4483,34 +5291,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>328</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>113</v>
@@ -4518,33 +5323,32 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>328</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>
@@ -4553,9 +5357,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
@@ -4564,42 +5368,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
@@ -4608,9 +5415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
         <v>113</v>
@@ -4618,43 +5425,44 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -4663,42 +5471,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
         <v>113</v>
@@ -4707,9 +5515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
         <v>113</v>
@@ -4718,31 +5526,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>194</v>
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>253</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>316</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>194</v>
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="B32" t="s">
         <v>113</v>
@@ -4753,32 +5572,32 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" t="b">
+      <c r="C34" s="24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -4786,17 +5605,347 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>347</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>386</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C36" t="b">
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>312</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>341</v>
+      </c>
+      <c r="B46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>361</v>
+      </c>
+      <c r="B56" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>362</v>
+      </c>
+      <c r="B57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB34C5-5455-4274-9C46-C009F914FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC64193-0187-48C6-8934-6BB97D0BB813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1993,11 +1993,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:Q173"/>
+  <dimension ref="A1:Q178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <pane ySplit="10275" topLeftCell="A44"/>
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <pane ySplit="10125" topLeftCell="A44"/>
+      <selection activeCell="B100" sqref="B100"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2075,6 +2075,21 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
       <c r="L4" s="24" t="s">
         <v>343</v>
       </c>
@@ -2099,28 +2114,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>114</v>
@@ -2130,44 +2123,44 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
         <v>253</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>126</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>127</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>114</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>131</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>130</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -2182,198 +2175,185 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
       <c r="B15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" t="s">
         <v>114</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
         <v>187</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G19" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H19" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="34"/>
-      <c r="B22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="34"/>
-      <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" t="s">
-        <v>339</v>
-      </c>
-      <c r="H23" t="s">
-        <v>340</v>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="34"/>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
-        <v>312</v>
+      <c r="B24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="34"/>
-      <c r="B25" t="s">
-        <v>13</v>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="34"/>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="D30" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" t="s">
-        <v>330</v>
-      </c>
-      <c r="H30" t="s">
-        <v>330</v>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="D31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" t="s">
-        <v>134</v>
+      <c r="B31" s="24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="21"/>
       <c r="B32" s="24"/>
       <c r="D32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="21"/>
-      <c r="B33" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>224</v>
-      </c>
-      <c r="L33" t="s">
-        <v>242</v>
+      <c r="B33" s="24"/>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="21"/>
-      <c r="B34" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="J34" t="s">
-        <v>189</v>
-      </c>
-      <c r="K34" t="s">
-        <v>227</v>
+      <c r="B34" s="24"/>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
       <c r="B35" s="24" t="s">
-        <v>13</v>
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2381,101 +2361,101 @@
       <c r="B36" s="24" t="s">
         <v>115</v>
       </c>
+      <c r="J36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>334</v>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="24" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="35"/>
-      <c r="B39" s="24"/>
-      <c r="D39" t="s">
-        <v>187</v>
-      </c>
-      <c r="G39" t="s">
-        <v>331</v>
-      </c>
-      <c r="H39" t="s">
-        <v>331</v>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="35"/>
-      <c r="B40" s="24"/>
-      <c r="D40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" t="s">
-        <v>134</v>
+      <c r="B40" s="24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="35"/>
       <c r="B41" s="24"/>
       <c r="D41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="H41" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="35"/>
-      <c r="B42" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" t="s">
-        <v>224</v>
-      </c>
-      <c r="L42" t="s">
-        <v>242</v>
+      <c r="B42" s="24"/>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="35"/>
-      <c r="B43" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="J43" t="s">
-        <v>189</v>
-      </c>
-      <c r="K43" t="s">
-        <v>227</v>
+      <c r="B43" s="24"/>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="35"/>
       <c r="B44" s="24" t="s">
-        <v>13</v>
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -2483,352 +2463,342 @@
       <c r="B45" s="24" t="s">
         <v>115</v>
       </c>
+      <c r="J45" t="s">
+        <v>189</v>
+      </c>
+      <c r="K45" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="36"/>
-      <c r="B46" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" t="s">
-        <v>344</v>
+      <c r="A46" s="35"/>
+      <c r="B46" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="36"/>
-      <c r="B47" s="33" t="s">
-        <v>12</v>
+      <c r="A47" s="35"/>
+      <c r="B47" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="36"/>
-      <c r="B48" s="33"/>
-      <c r="D48" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48" t="s">
-        <v>345</v>
-      </c>
-      <c r="H48" t="s">
-        <v>345</v>
+      <c r="B48" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="36"/>
-      <c r="B49" s="33"/>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H49" t="s">
-        <v>134</v>
+      <c r="B49" s="33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="36"/>
       <c r="B50" s="33"/>
       <c r="D50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="H50" t="s">
-        <v>137</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="36"/>
-      <c r="B51" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>224</v>
-      </c>
-      <c r="L51" t="s">
-        <v>242</v>
+      <c r="B51" s="33"/>
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="36"/>
-      <c r="B52" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="J52" t="s">
-        <v>189</v>
-      </c>
-      <c r="K52" t="s">
-        <v>227</v>
+      <c r="B52" s="33"/>
+      <c r="D52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="36"/>
       <c r="B53" s="33" t="s">
-        <v>13</v>
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>224</v>
+      </c>
+      <c r="L53" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="36"/>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="33" t="s">
         <v>115</v>
       </c>
+      <c r="J54" t="s">
+        <v>189</v>
+      </c>
+      <c r="K54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="36"/>
+      <c r="B55" s="33" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="37"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="37"/>
-      <c r="B57" s="24" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="37"/>
-      <c r="B58" s="24"/>
-      <c r="D58" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" t="s">
-        <v>139</v>
-      </c>
-      <c r="H58" t="s">
-        <v>140</v>
+      <c r="B58" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="37"/>
       <c r="B59" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="37"/>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="24"/>
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="37"/>
+      <c r="B61" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="37"/>
+      <c r="B62" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="30"/>
-      <c r="B61" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="30"/>
+      <c r="B63" t="s">
         <v>114</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="27"/>
-      <c r="B62" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="27"/>
-      <c r="B63" s="26"/>
-      <c r="D63" t="s">
-        <v>253</v>
-      </c>
-      <c r="F63" t="s">
-        <v>164</v>
-      </c>
-      <c r="G63" t="s">
-        <v>165</v>
-      </c>
-      <c r="H63" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="27"/>
-      <c r="B64" s="26"/>
-      <c r="D64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" t="s">
-        <v>142</v>
-      </c>
-      <c r="G64" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" t="s">
-        <v>144</v>
+      <c r="B64" s="26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="27"/>
-      <c r="B65" s="26" t="s">
-        <v>13</v>
+      <c r="B65" s="26"/>
+      <c r="D65" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="27"/>
       <c r="B66" s="26"/>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="27"/>
-      <c r="B67" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" t="s">
-        <v>167</v>
+      <c r="B67" s="26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="27"/>
-      <c r="B68" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B68" s="26"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="27"/>
-      <c r="B69" s="5"/>
-      <c r="D69" t="s">
-        <v>113</v>
-      </c>
-      <c r="E69" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" t="s">
-        <v>168</v>
-      </c>
-      <c r="G69" t="s">
-        <v>169</v>
-      </c>
-      <c r="H69" t="s">
-        <v>228</v>
+      <c r="B69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="27"/>
       <c r="B70" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>113</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="G71" t="s">
-        <v>316</v>
+        <v>169</v>
       </c>
       <c r="H71" t="s">
-        <v>329</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="27"/>
-      <c r="B72" s="5"/>
-      <c r="D72" t="s">
-        <v>328</v>
-      </c>
-      <c r="E72" t="s">
-        <v>318</v>
-      </c>
-      <c r="F72" t="s">
-        <v>317</v>
-      </c>
-      <c r="G72" t="s">
-        <v>325</v>
-      </c>
-      <c r="H72" t="s">
-        <v>326</v>
+      <c r="B72" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="27"/>
-      <c r="B73" s="5" t="s">
-        <v>115</v>
+      <c r="B73" s="5"/>
+      <c r="D73" t="s">
+        <v>194</v>
+      </c>
+      <c r="F73" t="s">
+        <v>315</v>
+      </c>
+      <c r="G73" t="s">
+        <v>316</v>
+      </c>
+      <c r="H73" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="27"/>
-      <c r="B74" s="5" t="s">
-        <v>13</v>
+      <c r="B74" s="5"/>
+      <c r="D74" t="s">
+        <v>328</v>
+      </c>
+      <c r="E74" t="s">
+        <v>318</v>
+      </c>
+      <c r="F74" t="s">
+        <v>317</v>
+      </c>
+      <c r="G74" t="s">
+        <v>325</v>
+      </c>
+      <c r="H74" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="27"/>
       <c r="B75" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="27"/>
+      <c r="B76" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="27"/>
+      <c r="B77" s="5" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="37"/>
-      <c r="B76" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="37"/>
-      <c r="B77" s="21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="37"/>
-      <c r="B78" s="21"/>
-      <c r="D78" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="G78" t="s">
-        <v>399</v>
-      </c>
-      <c r="H78" t="s">
-        <v>400</v>
+      <c r="B78" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="37"/>
       <c r="B79" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="C79" t="s">
-        <v>397</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -2837,193 +2807,196 @@
       <c r="D80" t="s">
         <v>113</v>
       </c>
-      <c r="E80" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" t="s">
-        <v>168</v>
+      <c r="E80" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>394</v>
       </c>
       <c r="G80" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="H80" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="37"/>
       <c r="B81" s="21" t="s">
-        <v>114</v>
+        <v>396</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="37"/>
       <c r="B82" s="21"/>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>113</v>
+      </c>
+      <c r="E82" t="s">
+        <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="G82" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="H82" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="37"/>
-      <c r="B83" s="21"/>
-      <c r="D83" t="s">
-        <v>328</v>
-      </c>
-      <c r="E83" t="s">
-        <v>318</v>
-      </c>
-      <c r="F83" t="s">
-        <v>317</v>
-      </c>
-      <c r="G83" t="s">
-        <v>325</v>
-      </c>
-      <c r="H83" t="s">
-        <v>326</v>
+      <c r="B83" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="37"/>
-      <c r="B84" s="21" t="s">
-        <v>115</v>
+      <c r="B84" s="21"/>
+      <c r="D84" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" t="s">
+        <v>315</v>
+      </c>
+      <c r="G84" t="s">
+        <v>316</v>
+      </c>
+      <c r="H84" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="37"/>
-      <c r="B85" s="21" t="s">
-        <v>115</v>
+      <c r="B85" s="21"/>
+      <c r="D85" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" t="s">
+        <v>318</v>
+      </c>
+      <c r="F85" t="s">
+        <v>317</v>
+      </c>
+      <c r="G85" t="s">
+        <v>325</v>
+      </c>
+      <c r="H85" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="37"/>
-      <c r="B86" s="21"/>
-      <c r="D86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="G86" t="s">
-        <v>401</v>
-      </c>
-      <c r="H86" t="s">
-        <v>402</v>
+      <c r="B86" s="21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="37"/>
       <c r="B87" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="C87" t="s">
-        <v>403</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="37"/>
       <c r="B88" s="21"/>
+      <c r="D88" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="G88" t="s">
+        <v>401</v>
+      </c>
+      <c r="H88" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="37"/>
-      <c r="B89" s="21"/>
-      <c r="D89" t="s">
-        <v>113</v>
-      </c>
-      <c r="E89" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89" t="s">
-        <v>377</v>
-      </c>
-      <c r="G89" t="s">
-        <v>380</v>
-      </c>
-      <c r="H89" t="s">
-        <v>381</v>
+      <c r="B89" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="37"/>
-      <c r="B90" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" t="s">
-        <v>390</v>
-      </c>
+      <c r="B90" s="21"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="37"/>
       <c r="B91" s="21"/>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>113</v>
+      </c>
+      <c r="E91" t="s">
+        <v>27</v>
       </c>
       <c r="F91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G91" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="H91" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="37"/>
-      <c r="B92" s="21"/>
-      <c r="D92" t="s">
-        <v>328</v>
-      </c>
-      <c r="E92" t="s">
-        <v>318</v>
-      </c>
-      <c r="F92" t="s">
-        <v>379</v>
-      </c>
-      <c r="G92" t="s">
-        <v>325</v>
-      </c>
-      <c r="H92" t="s">
-        <v>326</v>
+      <c r="B92" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="37"/>
       <c r="B93" s="21"/>
       <c r="D93" t="s">
-        <v>113</v>
-      </c>
-      <c r="E93" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="F93" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G93" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="H93" t="s">
-        <v>388</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="37"/>
-      <c r="B94" s="21" t="s">
-        <v>115</v>
+      <c r="B94" s="21"/>
+      <c r="D94" t="s">
+        <v>328</v>
+      </c>
+      <c r="E94" t="s">
+        <v>318</v>
+      </c>
+      <c r="F94" t="s">
+        <v>379</v>
+      </c>
+      <c r="G94" t="s">
+        <v>325</v>
+      </c>
+      <c r="H94" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -3035,77 +3008,49 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="37"/>
       <c r="B96" s="21" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="37"/>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="21"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="37"/>
+      <c r="B98" s="21"/>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" t="s">
+        <v>386</v>
+      </c>
+      <c r="G98" t="s">
+        <v>387</v>
+      </c>
+      <c r="H98" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="37"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="37"/>
+      <c r="B100" s="21"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="37"/>
+      <c r="B101" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="37"/>
+      <c r="B102" s="21" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="D100" t="s">
-        <v>113</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="G100" t="s">
-        <v>406</v>
-      </c>
-      <c r="H100" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="C101" t="s">
-        <v>408</v>
-      </c>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
-      <c r="D102" t="s">
-        <v>113</v>
-      </c>
-      <c r="E102" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" t="s">
-        <v>383</v>
-      </c>
-      <c r="G102" t="s">
-        <v>404</v>
-      </c>
-      <c r="H102" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -3114,213 +3059,191 @@
         <v>114</v>
       </c>
       <c r="C103" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="21"/>
-      <c r="B104" s="21"/>
-      <c r="D104" t="s">
-        <v>194</v>
-      </c>
-      <c r="F104" t="s">
-        <v>384</v>
-      </c>
-      <c r="G104" t="s">
-        <v>316</v>
-      </c>
-      <c r="H104" t="s">
-        <v>329</v>
+      <c r="B104" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="D105" t="s">
-        <v>328</v>
-      </c>
-      <c r="E105" t="s">
-        <v>318</v>
-      </c>
-      <c r="F105" t="s">
-        <v>385</v>
+        <v>113</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>405</v>
       </c>
       <c r="G105" t="s">
-        <v>325</v>
+        <v>406</v>
       </c>
       <c r="H105" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="21"/>
       <c r="B106" s="21" t="s">
-        <v>115</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C106" t="s">
+        <v>408</v>
+      </c>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="21"/>
-      <c r="B107" s="21" t="s">
-        <v>272</v>
+      <c r="B107" s="21"/>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" t="s">
+        <v>383</v>
+      </c>
+      <c r="G107" t="s">
+        <v>404</v>
+      </c>
+      <c r="H107" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="21"/>
       <c r="B108" s="21" t="s">
-        <v>13</v>
+        <v>114</v>
+      </c>
+      <c r="C108" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="21"/>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="21"/>
+      <c r="D109" t="s">
+        <v>194</v>
+      </c>
+      <c r="F109" t="s">
+        <v>384</v>
+      </c>
+      <c r="G109" t="s">
+        <v>316</v>
+      </c>
+      <c r="H109" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
+      <c r="D110" t="s">
+        <v>328</v>
+      </c>
+      <c r="E110" t="s">
+        <v>318</v>
+      </c>
+      <c r="F110" t="s">
+        <v>385</v>
+      </c>
+      <c r="G110" t="s">
+        <v>325</v>
+      </c>
+      <c r="H110" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="21"/>
+      <c r="B111" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="27"/>
-      <c r="B110" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="27"/>
-      <c r="B111" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="27"/>
-      <c r="D112" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G112" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H112" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="27"/>
-      <c r="D113" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="27"/>
-      <c r="B114" s="19" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="21"/>
+      <c r="B112" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="21"/>
+      <c r="B113" s="21" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" s="21"/>
+      <c r="B114" s="21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="27"/>
       <c r="B115" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A117" s="29"/>
-      <c r="B117" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
-      <c r="L117" s="24"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A118" s="29"/>
-      <c r="B118" s="24" t="s">
+      <c r="B116" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
-      <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A119" s="29"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24" t="s">
+    </row>
+    <row r="117" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="27"/>
+      <c r="D117" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H119" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A120" s="29"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24" t="s">
+      <c r="G117" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="27"/>
+      <c r="D118" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E120" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A121" s="29"/>
-      <c r="B121" s="24" t="s">
+      <c r="E118" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="27"/>
+      <c r="B119" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
+    </row>
+    <row r="120" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="27"/>
+      <c r="B120" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="27"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="29"/>
       <c r="B122" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C122" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="D122" s="24"/>
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
@@ -3332,105 +3255,105 @@
       <c r="L122" s="24"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A123" s="30"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" s="29"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" s="29"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" s="29"/>
+      <c r="B126" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" s="29"/>
+      <c r="B127" s="24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A126" s="37"/>
-      <c r="B126" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C126" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="28"/>
-      <c r="L126" s="28"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A127" s="37"/>
-      <c r="B127" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="28"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A128" s="37"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="H128" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
-      <c r="K128" s="28"/>
-      <c r="L128" s="28"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A129" s="37"/>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
-      <c r="K129" s="28"/>
-      <c r="L129" s="28"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A130" s="37"/>
-      <c r="B130" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="28"/>
-      <c r="L130" s="28"/>
+      <c r="A128" s="30"/>
+      <c r="B128" s="24" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="37"/>
       <c r="B131" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" s="28"/>
+        <v>114</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>338</v>
+      </c>
       <c r="D131" s="28"/>
       <c r="E131" s="28"/>
       <c r="F131" s="28"/>
@@ -3441,262 +3364,298 @@
       <c r="K131" s="28"/>
       <c r="L131" s="28"/>
     </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A132" s="37"/>
+      <c r="B132" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="28"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A133" s="37"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H133" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="28"/>
+    </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="37"/>
-      <c r="B134" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C134" t="s">
-        <v>412</v>
-      </c>
-      <c r="L134" t="s">
-        <v>349</v>
-      </c>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="28"/>
+      <c r="L134" s="28"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="37"/>
-      <c r="B135" s="27" t="s">
-        <v>12</v>
-      </c>
+      <c r="B135" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="28"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="37"/>
-      <c r="B136" s="27"/>
-      <c r="D136" t="s">
-        <v>113</v>
-      </c>
-      <c r="E136" t="s">
-        <v>27</v>
-      </c>
-      <c r="F136" t="s">
-        <v>145</v>
-      </c>
-      <c r="G136" t="s">
-        <v>147</v>
-      </c>
-      <c r="H136" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A137" s="37"/>
-      <c r="B137" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A138" s="37"/>
-      <c r="B138" s="27"/>
-      <c r="D138" t="s">
-        <v>163</v>
-      </c>
-      <c r="E138" t="s">
-        <v>73</v>
-      </c>
-      <c r="F138" t="s">
-        <v>149</v>
-      </c>
-      <c r="G138" t="s">
-        <v>150</v>
-      </c>
-      <c r="H138" t="s">
-        <v>151</v>
-      </c>
+      <c r="B136" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="28"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="37"/>
-      <c r="B139" s="27" t="s">
-        <v>115</v>
+      <c r="B139" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C139" t="s">
+        <v>412</v>
+      </c>
+      <c r="L139" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="37"/>
       <c r="B140" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="37"/>
-      <c r="B141" s="27" t="s">
+      <c r="B141" s="27"/>
+      <c r="D141" t="s">
+        <v>113</v>
+      </c>
+      <c r="E141" t="s">
+        <v>27</v>
+      </c>
+      <c r="F141" t="s">
+        <v>145</v>
+      </c>
+      <c r="G141" t="s">
+        <v>147</v>
+      </c>
+      <c r="H141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" s="37"/>
+      <c r="B142" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C142" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" s="37"/>
+      <c r="B143" s="27"/>
+      <c r="D143" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" t="s">
+        <v>73</v>
+      </c>
+      <c r="F143" t="s">
+        <v>149</v>
+      </c>
+      <c r="G143" t="s">
+        <v>150</v>
+      </c>
+      <c r="H143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" s="37"/>
+      <c r="B144" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A142" s="38"/>
-      <c r="B142" s="5" t="s">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" s="37"/>
+      <c r="B145" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" s="37"/>
+      <c r="B146" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" s="38"/>
+      <c r="B147" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C147" t="s">
         <v>413</v>
       </c>
-      <c r="L142" s="5" t="s">
+      <c r="L147" s="5" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A143" s="21"/>
-      <c r="B143" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A144" s="21"/>
-      <c r="B144" s="25"/>
-      <c r="D144" t="s">
-        <v>113</v>
-      </c>
-      <c r="E144" t="s">
-        <v>27</v>
-      </c>
-      <c r="F144" t="s">
-        <v>152</v>
-      </c>
-      <c r="G144" t="s">
-        <v>153</v>
-      </c>
-      <c r="H144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A145" s="21"/>
-      <c r="B145" s="25"/>
-      <c r="D145" t="s">
-        <v>113</v>
-      </c>
-      <c r="E145" t="s">
-        <v>65</v>
-      </c>
-      <c r="F145" t="s">
-        <v>154</v>
-      </c>
-      <c r="G145" t="s">
-        <v>155</v>
-      </c>
-      <c r="H145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A146" s="21"/>
-      <c r="B146" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C146" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A147" s="21"/>
-      <c r="B147" s="25"/>
-      <c r="D147" t="s">
-        <v>113</v>
-      </c>
-      <c r="E147" t="s">
-        <v>59</v>
-      </c>
-      <c r="F147" t="s">
-        <v>157</v>
-      </c>
-      <c r="G147" t="s">
-        <v>158</v>
-      </c>
-      <c r="H147" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="21"/>
       <c r="B148" s="25" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="21"/>
-      <c r="B149" s="25" t="s">
-        <v>13</v>
+      <c r="B149" s="25"/>
+      <c r="D149" t="s">
+        <v>113</v>
+      </c>
+      <c r="E149" t="s">
+        <v>27</v>
+      </c>
+      <c r="F149" t="s">
+        <v>152</v>
+      </c>
+      <c r="G149" t="s">
+        <v>153</v>
+      </c>
+      <c r="H149" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="21"/>
-      <c r="B150" s="27"/>
+      <c r="B150" s="25"/>
+      <c r="D150" t="s">
+        <v>113</v>
+      </c>
+      <c r="E150" t="s">
+        <v>65</v>
+      </c>
+      <c r="F150" t="s">
+        <v>154</v>
+      </c>
+      <c r="G150" t="s">
+        <v>155</v>
+      </c>
+      <c r="H150" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A151" s="37"/>
-      <c r="B151" s="28" t="s">
-        <v>12</v>
+      <c r="A151" s="21"/>
+      <c r="B151" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A152" s="37"/>
-      <c r="B152" s="28"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="25"/>
       <c r="D152" t="s">
         <v>113</v>
       </c>
       <c r="E152" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="F152" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="G152" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A153" s="37"/>
-      <c r="B153" s="28" t="s">
+      <c r="A153" s="21"/>
+      <c r="B153" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" s="21"/>
+      <c r="B154" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A154" s="37"/>
-      <c r="B154" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C154" t="s">
-        <v>210</v>
-      </c>
-    </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A155" s="37"/>
-      <c r="B155" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="A155" s="21"/>
+      <c r="B155" s="27"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="37"/>
-      <c r="B156" s="28"/>
-      <c r="D156" t="s">
-        <v>187</v>
-      </c>
-      <c r="G156" t="s">
-        <v>273</v>
-      </c>
-      <c r="H156" t="s">
-        <v>274</v>
-      </c>
-      <c r="L156" s="13" t="s">
-        <v>350</v>
+      <c r="B156" s="28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="37"/>
       <c r="B157" s="28"/>
-      <c r="D157" s="13" t="s">
-        <v>174</v>
+      <c r="D157" t="s">
+        <v>113</v>
       </c>
       <c r="E157" t="s">
-        <v>352</v>
-      </c>
-      <c r="L157" s="13" t="s">
-        <v>350</v>
+        <v>171</v>
+      </c>
+      <c r="F157" t="s">
+        <v>207</v>
+      </c>
+      <c r="G157" t="s">
+        <v>172</v>
+      </c>
+      <c r="H157" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
@@ -3708,105 +3667,155 @@
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="37"/>
       <c r="B159" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C159" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" s="37"/>
+      <c r="B160" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A161" s="37"/>
+      <c r="B161" s="28"/>
+      <c r="D161" t="s">
+        <v>187</v>
+      </c>
+      <c r="G161" t="s">
+        <v>273</v>
+      </c>
+      <c r="H161" t="s">
+        <v>274</v>
+      </c>
+      <c r="L161" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A162" s="37"/>
+      <c r="B162" s="28"/>
+      <c r="D162" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E162" t="s">
+        <v>352</v>
+      </c>
+      <c r="L162" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A163" s="37"/>
+      <c r="B163" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A164" s="37"/>
+      <c r="B164" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A160" s="38"/>
-      <c r="B160" s="5" t="s">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A165" s="38"/>
+      <c r="B165" s="5" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A161" s="5"/>
-      <c r="B161" t="s">
-        <v>114</v>
-      </c>
-      <c r="C161" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A162" s="5"/>
-      <c r="B162" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163" s="5"/>
-      <c r="D163" t="s">
-        <v>187</v>
-      </c>
-      <c r="G163" t="s">
-        <v>347</v>
-      </c>
-      <c r="H163" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A164" s="5"/>
-      <c r="D164" t="s">
-        <v>174</v>
-      </c>
-      <c r="E164" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="5"/>
-      <c r="B165" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="5"/>
       <c r="B166" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A167" s="5"/>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A168" s="5"/>
+      <c r="D168" t="s">
+        <v>187</v>
+      </c>
+      <c r="G168" t="s">
+        <v>347</v>
+      </c>
+      <c r="H168" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A169" s="5"/>
+      <c r="D169" t="s">
+        <v>174</v>
+      </c>
+      <c r="E169" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A170" s="5"/>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" s="5"/>
+      <c r="B171" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A167" s="23"/>
-      <c r="B167" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A172" s="23"/>
+      <c r="B172" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A168" s="21"/>
-      <c r="B168" t="s">
-        <v>114</v>
-      </c>
-      <c r="C168" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B169" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D170" t="s">
-        <v>187</v>
-      </c>
-      <c r="G170" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="H170" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="L170" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B172" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="21"/>
       <c r="B173" t="s">
+        <v>114</v>
+      </c>
+      <c r="C173" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D175" t="s">
+        <v>187</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H175" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="L175" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="21"/>
+      <c r="B178" t="s">
         <v>115</v>
       </c>
     </row>

--- a/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
+++ b/app/config/tables/MIF_VISIT/forms/MIF_VISIT/MIF_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC64193-0187-48C6-8934-6BB97D0BB813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBA27F5-432E-438C-9723-626B8F52D261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="417">
   <si>
     <t>setting_name</t>
   </si>
@@ -1300,6 +1300,15 @@
       </rPr>
       <t xml:space="preserve"> data('PARPAD3') != '1' &amp;&amp; data('ESTADOVIS')!='3'&amp;&amp; data('ESTADOVIS')!='2'</t>
     </r>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>V_OBS</t>
   </si>
 </sst>
 </file>
@@ -1993,12 +2002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:Q178"/>
+  <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <pane ySplit="10125" topLeftCell="A44"/>
-      <selection activeCell="B100" sqref="B100"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3808,15 +3815,39 @@
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="21"/>
       <c r="B178" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D181" t="s">
+        <v>111</v>
+      </c>
+      <c r="F181" t="s">
+        <v>416</v>
+      </c>
+      <c r="G181" t="s">
+        <v>414</v>
+      </c>
+      <c r="H181" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5208,11 +5239,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5602,19 +5633,19 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" t="b">
+      <c r="A35" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
         <v>113</v>
@@ -5625,7 +5656,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
         <v>113</v>
@@ -5636,7 +5667,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
         <v>113</v>
@@ -5647,7 +5678,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>386</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
         <v>113</v>
@@ -5658,10 +5689,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>194</v>
+        <v>386</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5669,7 +5700,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>194</v>
@@ -5680,10 +5711,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>312</v>
-      </c>
-      <c r="B42" t="s">
-        <v>113</v>
+        <v>311</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5691,10 +5722,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -5702,10 +5733,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -5713,10 +5744,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -5724,7 +5755,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s">
         <v>194</v>
@@ -5733,20 +5764,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>353</v>
-      </c>
-      <c r="B48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" t="b">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>341</v>
+      </c>
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s">
         <v>253</v>
@@ -5757,7 +5788,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s">
         <v>253</v>
@@ -5768,7 +5799,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s">
         <v>253</v>
@@ -5779,7 +5810,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s">
         <v>253</v>
@@ -5790,7 +5821,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s">
         <v>253</v>
@@ -5801,7 +5832,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s">
         <v>253</v>
@@ -5812,7 +5843,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s">
         <v>253</v>
@@ -5823,7 +5854,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s">
         <v>253</v>
@@ -5834,7 +5865,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B57" t="s">
         <v>253</v>
@@ -5845,7 +5876,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B58" t="s">
         <v>253</v>
@@ -5856,7 +5887,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s">
         <v>253</v>
@@ -5867,7 +5898,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B60" t="s">
         <v>253</v>
@@ -5878,7 +5909,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s">
         <v>253</v>
@@ -5889,7 +5920,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s">
         <v>253</v>
@@ -5900,7 +5931,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B63" t="s">
         <v>253</v>
@@ -5911,7 +5942,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B64" t="s">
         <v>253</v>
@@ -5922,7 +5953,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B65" t="s">
         <v>253</v>
@@ -5933,7 +5964,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B66" t="s">
         <v>253</v>
@@ -5944,7 +5975,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B67" t="s">
         <v>253</v>
@@ -5953,8 +5984,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="10" type="noConversion"/>
